--- a/data/raw.xlsx
+++ b/data/raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikklepl/Google Drive/4th Semester/Social and Cultural Dynamics in Cognition/Codenames/Cooperation-between-friends/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696B1311-5D0A-794E-9D6B-3C0B821BE252}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83642BA5-AA29-514E-A569-3F1752D85035}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7338" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7906" uniqueCount="289">
   <si>
     <t>participant.id_in_session</t>
   </si>
@@ -798,6 +798,96 @@
   <si>
     <t>nightmare</t>
   </si>
+  <si>
+    <t>2gta2du0</t>
+  </si>
+  <si>
+    <t>192.168.1.33</t>
+  </si>
+  <si>
+    <t>2018-05-22 14:15:27.986214+00:00</t>
+  </si>
+  <si>
+    <t>6, 20</t>
+  </si>
+  <si>
+    <t>6, 24</t>
+  </si>
+  <si>
+    <t>h7523i2i</t>
+  </si>
+  <si>
+    <t>2n98p4le</t>
+  </si>
+  <si>
+    <t>2018-05-22 14:15:45.024866+00:00</t>
+  </si>
+  <si>
+    <t>mammals</t>
+  </si>
+  <si>
+    <t>3,8,19</t>
+  </si>
+  <si>
+    <t>19, 3, 25</t>
+  </si>
+  <si>
+    <t>thoughts</t>
+  </si>
+  <si>
+    <t>16, 2</t>
+  </si>
+  <si>
+    <t>coldness</t>
+  </si>
+  <si>
+    <t>5,20</t>
+  </si>
+  <si>
+    <t>heroine</t>
+  </si>
+  <si>
+    <t>16,10</t>
+  </si>
+  <si>
+    <t>16, 4</t>
+  </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>12,23</t>
+  </si>
+  <si>
+    <t>10, 20</t>
+  </si>
+  <si>
+    <t>8,9</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>22,25</t>
+  </si>
+  <si>
+    <t>25, 22</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>alive</t>
+  </si>
+  <si>
+    <t>12,17</t>
+  </si>
+  <si>
+    <t>21, 12</t>
+  </si>
+  <si>
+    <t>undead</t>
+  </si>
 </sst>
 </file>
 
@@ -1172,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ1128"/>
+  <dimension ref="A1:AJ1208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="115" workbookViewId="0">
-      <selection activeCell="H646" sqref="H646"/>
+    <sheetView tabSelected="1" topLeftCell="S1122" zoomScale="115" workbookViewId="0">
+      <selection activeCell="Z1139" sqref="Z1139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -78493,6 +78583,5794 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1129" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1129">
+        <v>1</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1129">
+        <v>0</v>
+      </c>
+      <c r="E1129">
+        <v>104</v>
+      </c>
+      <c r="F1129">
+        <v>285</v>
+      </c>
+      <c r="G1129" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1129">
+        <v>14</v>
+      </c>
+      <c r="I1129" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1129" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1129" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1129">
+        <v>1</v>
+      </c>
+      <c r="O1129">
+        <v>0</v>
+      </c>
+      <c r="P1129">
+        <v>1</v>
+      </c>
+      <c r="Q1129">
+        <v>1</v>
+      </c>
+      <c r="R1129">
+        <v>1</v>
+      </c>
+      <c r="S1129">
+        <v>0</v>
+      </c>
+      <c r="T1129">
+        <v>1</v>
+      </c>
+      <c r="U1129">
+        <v>2</v>
+      </c>
+      <c r="V1129" t="s">
+        <v>139</v>
+      </c>
+      <c r="W1129" t="s">
+        <v>262</v>
+      </c>
+      <c r="X1129">
+        <v>5</v>
+      </c>
+      <c r="Y1129" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z1129">
+        <v>1</v>
+      </c>
+      <c r="AA1129">
+        <v>0</v>
+      </c>
+      <c r="AB1129">
+        <v>1</v>
+      </c>
+      <c r="AC1129">
+        <v>1</v>
+      </c>
+      <c r="AD1129" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1130">
+        <v>2</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1130">
+        <v>0</v>
+      </c>
+      <c r="E1130">
+        <v>104</v>
+      </c>
+      <c r="F1130">
+        <v>285</v>
+      </c>
+      <c r="G1130" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1130">
+        <v>14</v>
+      </c>
+      <c r="I1130" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1130" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1130" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1130">
+        <v>1</v>
+      </c>
+      <c r="O1130">
+        <v>0</v>
+      </c>
+      <c r="P1130">
+        <v>2</v>
+      </c>
+      <c r="Q1130">
+        <v>1</v>
+      </c>
+      <c r="R1130">
+        <v>1</v>
+      </c>
+      <c r="S1130">
+        <v>0</v>
+      </c>
+      <c r="T1130">
+        <v>1</v>
+      </c>
+      <c r="U1130">
+        <v>2</v>
+      </c>
+      <c r="V1130" t="s">
+        <v>139</v>
+      </c>
+      <c r="W1130" t="s">
+        <v>262</v>
+      </c>
+      <c r="X1130">
+        <v>5</v>
+      </c>
+      <c r="Y1130" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z1130">
+        <v>1</v>
+      </c>
+      <c r="AA1130">
+        <v>0</v>
+      </c>
+      <c r="AB1130">
+        <v>1</v>
+      </c>
+      <c r="AC1130">
+        <v>1</v>
+      </c>
+      <c r="AD1130" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1131">
+        <v>1</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1131">
+        <v>0</v>
+      </c>
+      <c r="E1131">
+        <v>104</v>
+      </c>
+      <c r="F1131">
+        <v>285</v>
+      </c>
+      <c r="G1131" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1131">
+        <v>14</v>
+      </c>
+      <c r="I1131" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1131" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1131" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1131">
+        <v>1</v>
+      </c>
+      <c r="O1131">
+        <v>0</v>
+      </c>
+      <c r="P1131">
+        <v>2</v>
+      </c>
+      <c r="Q1131">
+        <v>2</v>
+      </c>
+      <c r="R1131">
+        <v>41</v>
+      </c>
+      <c r="S1131">
+        <v>0</v>
+      </c>
+      <c r="T1131">
+        <v>1</v>
+      </c>
+      <c r="U1131">
+        <v>3</v>
+      </c>
+      <c r="V1131" t="s">
+        <v>267</v>
+      </c>
+      <c r="W1131" t="s">
+        <v>268</v>
+      </c>
+      <c r="X1131">
+        <v>8</v>
+      </c>
+      <c r="Y1131" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z1131">
+        <v>2</v>
+      </c>
+      <c r="AA1131">
+        <v>0</v>
+      </c>
+      <c r="AB1131">
+        <v>2</v>
+      </c>
+      <c r="AC1131">
+        <v>2</v>
+      </c>
+      <c r="AD1131" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1132">
+        <v>2</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1132">
+        <v>0</v>
+      </c>
+      <c r="E1132">
+        <v>104</v>
+      </c>
+      <c r="F1132">
+        <v>285</v>
+      </c>
+      <c r="G1132" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1132">
+        <v>14</v>
+      </c>
+      <c r="I1132" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1132" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1132" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1132">
+        <v>1</v>
+      </c>
+      <c r="O1132">
+        <v>0</v>
+      </c>
+      <c r="P1132">
+        <v>1</v>
+      </c>
+      <c r="Q1132">
+        <v>2</v>
+      </c>
+      <c r="R1132">
+        <v>41</v>
+      </c>
+      <c r="S1132">
+        <v>0</v>
+      </c>
+      <c r="T1132">
+        <v>1</v>
+      </c>
+      <c r="U1132">
+        <v>3</v>
+      </c>
+      <c r="V1132" t="s">
+        <v>267</v>
+      </c>
+      <c r="W1132" t="s">
+        <v>268</v>
+      </c>
+      <c r="X1132">
+        <v>8</v>
+      </c>
+      <c r="Y1132" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z1132">
+        <v>2</v>
+      </c>
+      <c r="AA1132">
+        <v>0</v>
+      </c>
+      <c r="AB1132">
+        <v>2</v>
+      </c>
+      <c r="AC1132">
+        <v>2</v>
+      </c>
+      <c r="AD1132" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1133">
+        <v>1</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1133">
+        <v>0</v>
+      </c>
+      <c r="E1133">
+        <v>104</v>
+      </c>
+      <c r="F1133">
+        <v>285</v>
+      </c>
+      <c r="G1133" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1133">
+        <v>14</v>
+      </c>
+      <c r="I1133" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1133" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1133" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1133">
+        <v>1</v>
+      </c>
+      <c r="O1133">
+        <v>0</v>
+      </c>
+      <c r="P1133">
+        <v>1</v>
+      </c>
+      <c r="Q1133">
+        <v>3</v>
+      </c>
+      <c r="R1133">
+        <v>42</v>
+      </c>
+      <c r="S1133">
+        <v>0</v>
+      </c>
+      <c r="T1133">
+        <v>1</v>
+      </c>
+      <c r="U1133">
+        <v>2</v>
+      </c>
+      <c r="V1133" t="s">
+        <v>270</v>
+      </c>
+      <c r="W1133" t="s">
+        <v>271</v>
+      </c>
+      <c r="X1133">
+        <v>7</v>
+      </c>
+      <c r="Y1133" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z1133">
+        <v>1</v>
+      </c>
+      <c r="AA1133">
+        <v>0</v>
+      </c>
+      <c r="AB1133">
+        <v>3</v>
+      </c>
+      <c r="AC1133">
+        <v>3</v>
+      </c>
+      <c r="AD1133" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1134">
+        <v>2</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1134">
+        <v>0</v>
+      </c>
+      <c r="E1134">
+        <v>104</v>
+      </c>
+      <c r="F1134">
+        <v>285</v>
+      </c>
+      <c r="G1134" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1134">
+        <v>14</v>
+      </c>
+      <c r="I1134" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1134" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1134" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1134">
+        <v>1</v>
+      </c>
+      <c r="O1134">
+        <v>0</v>
+      </c>
+      <c r="P1134">
+        <v>2</v>
+      </c>
+      <c r="Q1134">
+        <v>3</v>
+      </c>
+      <c r="R1134">
+        <v>42</v>
+      </c>
+      <c r="S1134">
+        <v>0</v>
+      </c>
+      <c r="T1134">
+        <v>1</v>
+      </c>
+      <c r="U1134">
+        <v>2</v>
+      </c>
+      <c r="V1134" t="s">
+        <v>270</v>
+      </c>
+      <c r="W1134" t="s">
+        <v>271</v>
+      </c>
+      <c r="X1134">
+        <v>7</v>
+      </c>
+      <c r="Y1134" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z1134">
+        <v>1</v>
+      </c>
+      <c r="AA1134">
+        <v>0</v>
+      </c>
+      <c r="AB1134">
+        <v>3</v>
+      </c>
+      <c r="AC1134">
+        <v>3</v>
+      </c>
+      <c r="AD1134" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1135">
+        <v>1</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1135">
+        <v>0</v>
+      </c>
+      <c r="E1135">
+        <v>104</v>
+      </c>
+      <c r="F1135">
+        <v>285</v>
+      </c>
+      <c r="G1135" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1135">
+        <v>14</v>
+      </c>
+      <c r="I1135" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1135" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1135" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1135">
+        <v>1</v>
+      </c>
+      <c r="O1135">
+        <v>0</v>
+      </c>
+      <c r="P1135">
+        <v>2</v>
+      </c>
+      <c r="Q1135">
+        <v>4</v>
+      </c>
+      <c r="R1135">
+        <v>43</v>
+      </c>
+      <c r="S1135">
+        <v>0</v>
+      </c>
+      <c r="T1135">
+        <v>1</v>
+      </c>
+      <c r="U1135">
+        <v>2</v>
+      </c>
+      <c r="V1135" t="s">
+        <v>272</v>
+      </c>
+      <c r="W1135" t="s">
+        <v>223</v>
+      </c>
+      <c r="X1135">
+        <v>8</v>
+      </c>
+      <c r="Y1135" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z1135">
+        <v>1</v>
+      </c>
+      <c r="AA1135">
+        <v>0</v>
+      </c>
+      <c r="AB1135">
+        <v>4</v>
+      </c>
+      <c r="AC1135">
+        <v>4</v>
+      </c>
+      <c r="AD1135" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1136">
+        <v>2</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1136">
+        <v>0</v>
+      </c>
+      <c r="E1136">
+        <v>104</v>
+      </c>
+      <c r="F1136">
+        <v>285</v>
+      </c>
+      <c r="G1136" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1136">
+        <v>14</v>
+      </c>
+      <c r="I1136" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1136" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1136" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1136">
+        <v>1</v>
+      </c>
+      <c r="O1136">
+        <v>0</v>
+      </c>
+      <c r="P1136">
+        <v>1</v>
+      </c>
+      <c r="Q1136">
+        <v>4</v>
+      </c>
+      <c r="R1136">
+        <v>43</v>
+      </c>
+      <c r="S1136">
+        <v>0</v>
+      </c>
+      <c r="T1136">
+        <v>1</v>
+      </c>
+      <c r="U1136">
+        <v>2</v>
+      </c>
+      <c r="V1136" t="s">
+        <v>272</v>
+      </c>
+      <c r="W1136" t="s">
+        <v>223</v>
+      </c>
+      <c r="X1136">
+        <v>8</v>
+      </c>
+      <c r="Y1136" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z1136">
+        <v>1</v>
+      </c>
+      <c r="AA1136">
+        <v>0</v>
+      </c>
+      <c r="AB1136">
+        <v>4</v>
+      </c>
+      <c r="AC1136">
+        <v>4</v>
+      </c>
+      <c r="AD1136" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1137">
+        <v>1</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1137">
+        <v>0</v>
+      </c>
+      <c r="E1137">
+        <v>104</v>
+      </c>
+      <c r="F1137">
+        <v>285</v>
+      </c>
+      <c r="G1137" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1137">
+        <v>14</v>
+      </c>
+      <c r="I1137" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1137" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1137" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1137">
+        <v>1</v>
+      </c>
+      <c r="O1137">
+        <v>0</v>
+      </c>
+      <c r="P1137">
+        <v>1</v>
+      </c>
+      <c r="Q1137">
+        <v>5</v>
+      </c>
+      <c r="R1137">
+        <v>44</v>
+      </c>
+      <c r="S1137">
+        <v>0</v>
+      </c>
+      <c r="T1137">
+        <v>1</v>
+      </c>
+      <c r="U1137">
+        <v>2</v>
+      </c>
+      <c r="V1137" t="s">
+        <v>274</v>
+      </c>
+      <c r="W1137" t="s">
+        <v>275</v>
+      </c>
+      <c r="X1137">
+        <v>9</v>
+      </c>
+      <c r="Y1137" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z1137">
+        <v>1</v>
+      </c>
+      <c r="AA1137">
+        <v>0</v>
+      </c>
+      <c r="AB1137">
+        <v>5</v>
+      </c>
+      <c r="AC1137">
+        <v>5</v>
+      </c>
+      <c r="AD1137" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1138">
+        <v>2</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1138">
+        <v>0</v>
+      </c>
+      <c r="E1138">
+        <v>104</v>
+      </c>
+      <c r="F1138">
+        <v>285</v>
+      </c>
+      <c r="G1138" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1138">
+        <v>14</v>
+      </c>
+      <c r="I1138" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1138" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1138" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1138">
+        <v>1</v>
+      </c>
+      <c r="O1138">
+        <v>0</v>
+      </c>
+      <c r="P1138">
+        <v>2</v>
+      </c>
+      <c r="Q1138">
+        <v>5</v>
+      </c>
+      <c r="R1138">
+        <v>44</v>
+      </c>
+      <c r="S1138">
+        <v>0</v>
+      </c>
+      <c r="T1138">
+        <v>1</v>
+      </c>
+      <c r="U1138">
+        <v>2</v>
+      </c>
+      <c r="V1138" t="s">
+        <v>274</v>
+      </c>
+      <c r="W1138" t="s">
+        <v>275</v>
+      </c>
+      <c r="X1138">
+        <v>9</v>
+      </c>
+      <c r="Y1138" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z1138">
+        <v>1</v>
+      </c>
+      <c r="AA1138">
+        <v>0</v>
+      </c>
+      <c r="AB1138">
+        <v>5</v>
+      </c>
+      <c r="AC1138">
+        <v>5</v>
+      </c>
+      <c r="AD1138" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1139">
+        <v>1</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1139">
+        <v>0</v>
+      </c>
+      <c r="E1139">
+        <v>104</v>
+      </c>
+      <c r="F1139">
+        <v>285</v>
+      </c>
+      <c r="G1139" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1139">
+        <v>14</v>
+      </c>
+      <c r="I1139" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1139" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1139" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1139">
+        <v>1</v>
+      </c>
+      <c r="O1139">
+        <v>0</v>
+      </c>
+      <c r="P1139">
+        <v>2</v>
+      </c>
+      <c r="Q1139">
+        <v>6</v>
+      </c>
+      <c r="R1139">
+        <v>45</v>
+      </c>
+      <c r="S1139">
+        <v>0</v>
+      </c>
+      <c r="T1139">
+        <v>1</v>
+      </c>
+      <c r="U1139">
+        <v>2</v>
+      </c>
+      <c r="V1139" t="s">
+        <v>277</v>
+      </c>
+      <c r="W1139" t="s">
+        <v>100</v>
+      </c>
+      <c r="X1139">
+        <v>9</v>
+      </c>
+      <c r="Y1139" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z1139">
+        <v>0</v>
+      </c>
+      <c r="AA1139">
+        <v>0</v>
+      </c>
+      <c r="AB1139">
+        <v>6</v>
+      </c>
+      <c r="AC1139">
+        <v>6</v>
+      </c>
+      <c r="AD1139" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1140">
+        <v>2</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1140">
+        <v>0</v>
+      </c>
+      <c r="E1140">
+        <v>104</v>
+      </c>
+      <c r="F1140">
+        <v>285</v>
+      </c>
+      <c r="G1140" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1140">
+        <v>14</v>
+      </c>
+      <c r="I1140" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1140" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1140" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1140">
+        <v>1</v>
+      </c>
+      <c r="O1140">
+        <v>0</v>
+      </c>
+      <c r="P1140">
+        <v>1</v>
+      </c>
+      <c r="Q1140">
+        <v>6</v>
+      </c>
+      <c r="R1140">
+        <v>45</v>
+      </c>
+      <c r="S1140">
+        <v>0</v>
+      </c>
+      <c r="T1140">
+        <v>1</v>
+      </c>
+      <c r="U1140">
+        <v>2</v>
+      </c>
+      <c r="V1140" t="s">
+        <v>277</v>
+      </c>
+      <c r="W1140" t="s">
+        <v>100</v>
+      </c>
+      <c r="X1140">
+        <v>9</v>
+      </c>
+      <c r="Y1140" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z1140">
+        <v>0</v>
+      </c>
+      <c r="AA1140">
+        <v>0</v>
+      </c>
+      <c r="AB1140">
+        <v>6</v>
+      </c>
+      <c r="AC1140">
+        <v>6</v>
+      </c>
+      <c r="AD1140" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1141">
+        <v>1</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1141">
+        <v>0</v>
+      </c>
+      <c r="E1141">
+        <v>104</v>
+      </c>
+      <c r="F1141">
+        <v>285</v>
+      </c>
+      <c r="G1141" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1141">
+        <v>14</v>
+      </c>
+      <c r="I1141" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1141" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1141" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1141">
+        <v>1</v>
+      </c>
+      <c r="O1141">
+        <v>0</v>
+      </c>
+      <c r="P1141">
+        <v>1</v>
+      </c>
+      <c r="Q1141">
+        <v>7</v>
+      </c>
+      <c r="R1141">
+        <v>46</v>
+      </c>
+      <c r="S1141">
+        <v>0</v>
+      </c>
+      <c r="T1141">
+        <v>1</v>
+      </c>
+      <c r="U1141">
+        <v>2</v>
+      </c>
+      <c r="V1141" t="s">
+        <v>127</v>
+      </c>
+      <c r="W1141" t="s">
+        <v>128</v>
+      </c>
+      <c r="X1141">
+        <v>10</v>
+      </c>
+      <c r="Y1141" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z1141">
+        <v>2</v>
+      </c>
+      <c r="AA1141">
+        <v>1</v>
+      </c>
+      <c r="AB1141">
+        <v>7</v>
+      </c>
+      <c r="AC1141">
+        <v>7</v>
+      </c>
+      <c r="AD1141" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1142">
+        <v>2</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1142">
+        <v>0</v>
+      </c>
+      <c r="E1142">
+        <v>104</v>
+      </c>
+      <c r="F1142">
+        <v>285</v>
+      </c>
+      <c r="G1142" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1142">
+        <v>14</v>
+      </c>
+      <c r="I1142" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1142" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1142" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1142">
+        <v>1</v>
+      </c>
+      <c r="O1142">
+        <v>0</v>
+      </c>
+      <c r="P1142">
+        <v>2</v>
+      </c>
+      <c r="Q1142">
+        <v>7</v>
+      </c>
+      <c r="R1142">
+        <v>46</v>
+      </c>
+      <c r="S1142">
+        <v>0</v>
+      </c>
+      <c r="T1142">
+        <v>1</v>
+      </c>
+      <c r="U1142">
+        <v>2</v>
+      </c>
+      <c r="V1142" t="s">
+        <v>127</v>
+      </c>
+      <c r="W1142" t="s">
+        <v>128</v>
+      </c>
+      <c r="X1142">
+        <v>10</v>
+      </c>
+      <c r="Y1142" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z1142">
+        <v>2</v>
+      </c>
+      <c r="AA1142">
+        <v>1</v>
+      </c>
+      <c r="AB1142">
+        <v>7</v>
+      </c>
+      <c r="AC1142">
+        <v>7</v>
+      </c>
+      <c r="AD1142" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1143">
+        <v>1</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1143">
+        <v>0</v>
+      </c>
+      <c r="E1143">
+        <v>104</v>
+      </c>
+      <c r="F1143">
+        <v>285</v>
+      </c>
+      <c r="G1143" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1143">
+        <v>14</v>
+      </c>
+      <c r="I1143" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1143" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1143" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1143">
+        <v>1</v>
+      </c>
+      <c r="O1143">
+        <v>0</v>
+      </c>
+      <c r="P1143">
+        <v>2</v>
+      </c>
+      <c r="Q1143">
+        <v>8</v>
+      </c>
+      <c r="R1143">
+        <v>47</v>
+      </c>
+      <c r="S1143">
+        <v>0</v>
+      </c>
+      <c r="T1143">
+        <v>1</v>
+      </c>
+      <c r="U1143">
+        <v>2</v>
+      </c>
+      <c r="V1143" t="s">
+        <v>256</v>
+      </c>
+      <c r="W1143" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1143">
+        <v>8</v>
+      </c>
+      <c r="Y1143" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z1143">
+        <v>1</v>
+      </c>
+      <c r="AA1143">
+        <v>0</v>
+      </c>
+      <c r="AB1143">
+        <v>8</v>
+      </c>
+      <c r="AC1143">
+        <v>8</v>
+      </c>
+      <c r="AD1143" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1144">
+        <v>2</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1144">
+        <v>0</v>
+      </c>
+      <c r="E1144">
+        <v>104</v>
+      </c>
+      <c r="F1144">
+        <v>285</v>
+      </c>
+      <c r="G1144" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1144">
+        <v>14</v>
+      </c>
+      <c r="I1144" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1144" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1144" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1144">
+        <v>1</v>
+      </c>
+      <c r="O1144">
+        <v>0</v>
+      </c>
+      <c r="P1144">
+        <v>1</v>
+      </c>
+      <c r="Q1144">
+        <v>8</v>
+      </c>
+      <c r="R1144">
+        <v>47</v>
+      </c>
+      <c r="S1144">
+        <v>0</v>
+      </c>
+      <c r="T1144">
+        <v>1</v>
+      </c>
+      <c r="U1144">
+        <v>2</v>
+      </c>
+      <c r="V1144" t="s">
+        <v>256</v>
+      </c>
+      <c r="W1144" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1144">
+        <v>8</v>
+      </c>
+      <c r="Y1144" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z1144">
+        <v>1</v>
+      </c>
+      <c r="AA1144">
+        <v>0</v>
+      </c>
+      <c r="AB1144">
+        <v>8</v>
+      </c>
+      <c r="AC1144">
+        <v>8</v>
+      </c>
+      <c r="AD1144" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1145">
+        <v>1</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1145">
+        <v>0</v>
+      </c>
+      <c r="E1145">
+        <v>104</v>
+      </c>
+      <c r="F1145">
+        <v>285</v>
+      </c>
+      <c r="G1145" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1145">
+        <v>14</v>
+      </c>
+      <c r="I1145" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1145" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1145" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1145">
+        <v>1</v>
+      </c>
+      <c r="O1145">
+        <v>0</v>
+      </c>
+      <c r="P1145">
+        <v>1</v>
+      </c>
+      <c r="Q1145">
+        <v>9</v>
+      </c>
+      <c r="R1145">
+        <v>48</v>
+      </c>
+      <c r="S1145">
+        <v>0</v>
+      </c>
+      <c r="T1145">
+        <v>1</v>
+      </c>
+      <c r="U1145">
+        <v>2</v>
+      </c>
+      <c r="V1145" t="s">
+        <v>281</v>
+      </c>
+      <c r="W1145" t="s">
+        <v>282</v>
+      </c>
+      <c r="X1145">
+        <v>8</v>
+      </c>
+      <c r="Y1145" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z1145">
+        <v>2</v>
+      </c>
+      <c r="AA1145">
+        <v>1</v>
+      </c>
+      <c r="AB1145">
+        <v>9</v>
+      </c>
+      <c r="AC1145">
+        <v>9</v>
+      </c>
+      <c r="AD1145" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1146">
+        <v>2</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1146">
+        <v>0</v>
+      </c>
+      <c r="E1146">
+        <v>104</v>
+      </c>
+      <c r="F1146">
+        <v>285</v>
+      </c>
+      <c r="G1146" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1146">
+        <v>14</v>
+      </c>
+      <c r="I1146" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1146" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1146" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1146">
+        <v>1</v>
+      </c>
+      <c r="O1146">
+        <v>0</v>
+      </c>
+      <c r="P1146">
+        <v>2</v>
+      </c>
+      <c r="Q1146">
+        <v>9</v>
+      </c>
+      <c r="R1146">
+        <v>48</v>
+      </c>
+      <c r="S1146">
+        <v>0</v>
+      </c>
+      <c r="T1146">
+        <v>1</v>
+      </c>
+      <c r="U1146">
+        <v>2</v>
+      </c>
+      <c r="V1146" t="s">
+        <v>281</v>
+      </c>
+      <c r="W1146" t="s">
+        <v>282</v>
+      </c>
+      <c r="X1146">
+        <v>8</v>
+      </c>
+      <c r="Y1146" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z1146">
+        <v>2</v>
+      </c>
+      <c r="AA1146">
+        <v>1</v>
+      </c>
+      <c r="AB1146">
+        <v>9</v>
+      </c>
+      <c r="AC1146">
+        <v>9</v>
+      </c>
+      <c r="AD1146" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1147">
+        <v>1</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1147">
+        <v>0</v>
+      </c>
+      <c r="E1147">
+        <v>104</v>
+      </c>
+      <c r="F1147">
+        <v>285</v>
+      </c>
+      <c r="G1147" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1147">
+        <v>14</v>
+      </c>
+      <c r="I1147" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1147" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1147" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1147">
+        <v>1</v>
+      </c>
+      <c r="O1147">
+        <v>0</v>
+      </c>
+      <c r="P1147">
+        <v>2</v>
+      </c>
+      <c r="Q1147">
+        <v>10</v>
+      </c>
+      <c r="R1147">
+        <v>49</v>
+      </c>
+      <c r="S1147">
+        <v>0</v>
+      </c>
+      <c r="T1147">
+        <v>1</v>
+      </c>
+      <c r="U1147">
+        <v>2</v>
+      </c>
+      <c r="V1147" t="s">
+        <v>284</v>
+      </c>
+      <c r="W1147" t="s">
+        <v>100</v>
+      </c>
+      <c r="X1147">
+        <v>9</v>
+      </c>
+      <c r="Y1147" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z1147">
+        <v>2</v>
+      </c>
+      <c r="AA1147">
+        <v>1</v>
+      </c>
+      <c r="AB1147">
+        <v>10</v>
+      </c>
+      <c r="AC1147">
+        <v>10</v>
+      </c>
+      <c r="AD1147" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1148">
+        <v>2</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1148">
+        <v>0</v>
+      </c>
+      <c r="E1148">
+        <v>104</v>
+      </c>
+      <c r="F1148">
+        <v>285</v>
+      </c>
+      <c r="G1148" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1148">
+        <v>14</v>
+      </c>
+      <c r="I1148" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1148" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1148" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1148">
+        <v>1</v>
+      </c>
+      <c r="O1148">
+        <v>0</v>
+      </c>
+      <c r="P1148">
+        <v>1</v>
+      </c>
+      <c r="Q1148">
+        <v>10</v>
+      </c>
+      <c r="R1148">
+        <v>49</v>
+      </c>
+      <c r="S1148">
+        <v>0</v>
+      </c>
+      <c r="T1148">
+        <v>1</v>
+      </c>
+      <c r="U1148">
+        <v>2</v>
+      </c>
+      <c r="V1148" t="s">
+        <v>284</v>
+      </c>
+      <c r="W1148" t="s">
+        <v>100</v>
+      </c>
+      <c r="X1148">
+        <v>9</v>
+      </c>
+      <c r="Y1148" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z1148">
+        <v>2</v>
+      </c>
+      <c r="AA1148">
+        <v>1</v>
+      </c>
+      <c r="AB1148">
+        <v>10</v>
+      </c>
+      <c r="AC1148">
+        <v>10</v>
+      </c>
+      <c r="AD1148" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1149">
+        <v>1</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1149">
+        <v>0</v>
+      </c>
+      <c r="E1149">
+        <v>104</v>
+      </c>
+      <c r="F1149">
+        <v>285</v>
+      </c>
+      <c r="G1149" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1149">
+        <v>14</v>
+      </c>
+      <c r="I1149" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1149" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1149" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1149">
+        <v>1</v>
+      </c>
+      <c r="O1149">
+        <v>0</v>
+      </c>
+      <c r="P1149">
+        <v>1</v>
+      </c>
+      <c r="Q1149">
+        <v>11</v>
+      </c>
+      <c r="R1149">
+        <v>50</v>
+      </c>
+      <c r="S1149">
+        <v>0</v>
+      </c>
+      <c r="T1149">
+        <v>1</v>
+      </c>
+      <c r="U1149">
+        <v>1</v>
+      </c>
+      <c r="V1149" t="s">
+        <v>114</v>
+      </c>
+      <c r="W1149" t="s">
+        <v>114</v>
+      </c>
+      <c r="X1149" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y1149" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z1149">
+        <v>0</v>
+      </c>
+      <c r="AA1149">
+        <v>0</v>
+      </c>
+      <c r="AB1149">
+        <v>11</v>
+      </c>
+      <c r="AC1149">
+        <v>11</v>
+      </c>
+      <c r="AD1149" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1150">
+        <v>2</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1150">
+        <v>0</v>
+      </c>
+      <c r="E1150">
+        <v>104</v>
+      </c>
+      <c r="F1150">
+        <v>285</v>
+      </c>
+      <c r="G1150" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1150">
+        <v>14</v>
+      </c>
+      <c r="I1150" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1150" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1150" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1150">
+        <v>1</v>
+      </c>
+      <c r="O1150">
+        <v>0</v>
+      </c>
+      <c r="P1150">
+        <v>2</v>
+      </c>
+      <c r="Q1150">
+        <v>11</v>
+      </c>
+      <c r="R1150">
+        <v>50</v>
+      </c>
+      <c r="S1150">
+        <v>0</v>
+      </c>
+      <c r="T1150">
+        <v>1</v>
+      </c>
+      <c r="U1150">
+        <v>1</v>
+      </c>
+      <c r="V1150" t="s">
+        <v>114</v>
+      </c>
+      <c r="W1150" t="s">
+        <v>114</v>
+      </c>
+      <c r="X1150" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y1150" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z1150">
+        <v>0</v>
+      </c>
+      <c r="AA1150">
+        <v>0</v>
+      </c>
+      <c r="AB1150">
+        <v>11</v>
+      </c>
+      <c r="AC1150">
+        <v>11</v>
+      </c>
+      <c r="AD1150" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1151">
+        <v>1</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1151">
+        <v>0</v>
+      </c>
+      <c r="E1151">
+        <v>104</v>
+      </c>
+      <c r="F1151">
+        <v>285</v>
+      </c>
+      <c r="G1151" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1151">
+        <v>14</v>
+      </c>
+      <c r="I1151" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1151" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1151" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1151">
+        <v>1</v>
+      </c>
+      <c r="O1151">
+        <v>0</v>
+      </c>
+      <c r="P1151">
+        <v>2</v>
+      </c>
+      <c r="Q1151">
+        <v>12</v>
+      </c>
+      <c r="R1151">
+        <v>51</v>
+      </c>
+      <c r="S1151">
+        <v>0</v>
+      </c>
+      <c r="T1151">
+        <v>1</v>
+      </c>
+      <c r="U1151">
+        <v>2</v>
+      </c>
+      <c r="V1151" t="s">
+        <v>285</v>
+      </c>
+      <c r="W1151" t="s">
+        <v>286</v>
+      </c>
+      <c r="X1151">
+        <v>8</v>
+      </c>
+      <c r="Y1151" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z1151">
+        <v>1</v>
+      </c>
+      <c r="AA1151">
+        <v>0</v>
+      </c>
+      <c r="AB1151">
+        <v>12</v>
+      </c>
+      <c r="AC1151">
+        <v>12</v>
+      </c>
+      <c r="AD1151" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1152">
+        <v>2</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1152">
+        <v>0</v>
+      </c>
+      <c r="E1152">
+        <v>104</v>
+      </c>
+      <c r="F1152">
+        <v>285</v>
+      </c>
+      <c r="G1152" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1152">
+        <v>14</v>
+      </c>
+      <c r="I1152" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1152" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1152" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1152">
+        <v>1</v>
+      </c>
+      <c r="O1152">
+        <v>0</v>
+      </c>
+      <c r="P1152">
+        <v>1</v>
+      </c>
+      <c r="Q1152">
+        <v>12</v>
+      </c>
+      <c r="R1152">
+        <v>51</v>
+      </c>
+      <c r="S1152">
+        <v>0</v>
+      </c>
+      <c r="T1152">
+        <v>1</v>
+      </c>
+      <c r="U1152">
+        <v>2</v>
+      </c>
+      <c r="V1152" t="s">
+        <v>285</v>
+      </c>
+      <c r="W1152" t="s">
+        <v>286</v>
+      </c>
+      <c r="X1152">
+        <v>8</v>
+      </c>
+      <c r="Y1152" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z1152">
+        <v>1</v>
+      </c>
+      <c r="AA1152">
+        <v>0</v>
+      </c>
+      <c r="AB1152">
+        <v>12</v>
+      </c>
+      <c r="AC1152">
+        <v>12</v>
+      </c>
+      <c r="AD1152" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1153">
+        <v>1</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1153">
+        <v>0</v>
+      </c>
+      <c r="E1153">
+        <v>104</v>
+      </c>
+      <c r="F1153">
+        <v>285</v>
+      </c>
+      <c r="G1153" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1153">
+        <v>14</v>
+      </c>
+      <c r="I1153" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1153" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1153" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1153">
+        <v>1</v>
+      </c>
+      <c r="O1153">
+        <v>0</v>
+      </c>
+      <c r="P1153">
+        <v>1</v>
+      </c>
+      <c r="Q1153">
+        <v>13</v>
+      </c>
+      <c r="R1153">
+        <v>52</v>
+      </c>
+      <c r="S1153">
+        <v>0</v>
+      </c>
+      <c r="T1153">
+        <v>1</v>
+      </c>
+      <c r="U1153">
+        <v>1</v>
+      </c>
+      <c r="V1153" t="s">
+        <v>114</v>
+      </c>
+      <c r="W1153" t="s">
+        <v>114</v>
+      </c>
+      <c r="X1153" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y1153" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z1153">
+        <v>0</v>
+      </c>
+      <c r="AA1153">
+        <v>0</v>
+      </c>
+      <c r="AB1153">
+        <v>13</v>
+      </c>
+      <c r="AC1153">
+        <v>13</v>
+      </c>
+      <c r="AD1153" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1154">
+        <v>2</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1154">
+        <v>0</v>
+      </c>
+      <c r="E1154">
+        <v>104</v>
+      </c>
+      <c r="F1154">
+        <v>285</v>
+      </c>
+      <c r="G1154" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1154">
+        <v>14</v>
+      </c>
+      <c r="I1154" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1154" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1154" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1154">
+        <v>1</v>
+      </c>
+      <c r="O1154">
+        <v>0</v>
+      </c>
+      <c r="P1154">
+        <v>2</v>
+      </c>
+      <c r="Q1154">
+        <v>13</v>
+      </c>
+      <c r="R1154">
+        <v>52</v>
+      </c>
+      <c r="S1154">
+        <v>0</v>
+      </c>
+      <c r="T1154">
+        <v>1</v>
+      </c>
+      <c r="U1154">
+        <v>1</v>
+      </c>
+      <c r="V1154" t="s">
+        <v>114</v>
+      </c>
+      <c r="W1154" t="s">
+        <v>114</v>
+      </c>
+      <c r="X1154" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y1154" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z1154">
+        <v>0</v>
+      </c>
+      <c r="AA1154">
+        <v>0</v>
+      </c>
+      <c r="AB1154">
+        <v>13</v>
+      </c>
+      <c r="AC1154">
+        <v>13</v>
+      </c>
+      <c r="AD1154" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1155">
+        <v>1</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1155">
+        <v>0</v>
+      </c>
+      <c r="E1155">
+        <v>104</v>
+      </c>
+      <c r="F1155">
+        <v>285</v>
+      </c>
+      <c r="G1155" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1155">
+        <v>14</v>
+      </c>
+      <c r="I1155" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1155" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1155" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1155">
+        <v>1</v>
+      </c>
+      <c r="O1155">
+        <v>0</v>
+      </c>
+      <c r="P1155">
+        <v>2</v>
+      </c>
+      <c r="Q1155">
+        <v>14</v>
+      </c>
+      <c r="R1155">
+        <v>53</v>
+      </c>
+      <c r="S1155">
+        <v>0</v>
+      </c>
+      <c r="T1155">
+        <v>1</v>
+      </c>
+      <c r="U1155">
+        <v>1</v>
+      </c>
+      <c r="V1155" t="s">
+        <v>288</v>
+      </c>
+      <c r="W1155" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1155">
+        <v>10</v>
+      </c>
+      <c r="Y1155" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1155">
+        <v>1</v>
+      </c>
+      <c r="AA1155">
+        <v>1</v>
+      </c>
+      <c r="AB1155">
+        <v>14</v>
+      </c>
+      <c r="AC1155">
+        <v>14</v>
+      </c>
+      <c r="AD1155" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1156">
+        <v>2</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1156">
+        <v>0</v>
+      </c>
+      <c r="E1156">
+        <v>104</v>
+      </c>
+      <c r="F1156">
+        <v>285</v>
+      </c>
+      <c r="G1156" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1156">
+        <v>14</v>
+      </c>
+      <c r="I1156" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1156" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1156" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1156">
+        <v>1</v>
+      </c>
+      <c r="O1156">
+        <v>0</v>
+      </c>
+      <c r="P1156">
+        <v>1</v>
+      </c>
+      <c r="Q1156">
+        <v>14</v>
+      </c>
+      <c r="R1156">
+        <v>53</v>
+      </c>
+      <c r="S1156">
+        <v>0</v>
+      </c>
+      <c r="T1156">
+        <v>1</v>
+      </c>
+      <c r="U1156">
+        <v>1</v>
+      </c>
+      <c r="V1156" t="s">
+        <v>288</v>
+      </c>
+      <c r="W1156" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1156">
+        <v>10</v>
+      </c>
+      <c r="Y1156" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1156">
+        <v>1</v>
+      </c>
+      <c r="AA1156">
+        <v>1</v>
+      </c>
+      <c r="AB1156">
+        <v>14</v>
+      </c>
+      <c r="AC1156">
+        <v>14</v>
+      </c>
+      <c r="AD1156" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1157">
+        <v>1</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1157">
+        <v>0</v>
+      </c>
+      <c r="E1157">
+        <v>104</v>
+      </c>
+      <c r="F1157">
+        <v>285</v>
+      </c>
+      <c r="G1157" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1157">
+        <v>14</v>
+      </c>
+      <c r="I1157" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1157" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1157" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1157">
+        <v>1</v>
+      </c>
+      <c r="O1157">
+        <v>0</v>
+      </c>
+      <c r="P1157">
+        <v>1</v>
+      </c>
+      <c r="Q1157">
+        <v>15</v>
+      </c>
+      <c r="R1157">
+        <v>54</v>
+      </c>
+      <c r="S1157">
+        <v>0</v>
+      </c>
+      <c r="T1157">
+        <v>1</v>
+      </c>
+      <c r="AB1157">
+        <v>15</v>
+      </c>
+      <c r="AC1157">
+        <v>15</v>
+      </c>
+      <c r="AD1157" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1158">
+        <v>2</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1158">
+        <v>0</v>
+      </c>
+      <c r="E1158">
+        <v>104</v>
+      </c>
+      <c r="F1158">
+        <v>285</v>
+      </c>
+      <c r="G1158" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1158">
+        <v>14</v>
+      </c>
+      <c r="I1158" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1158" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1158" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1158">
+        <v>1</v>
+      </c>
+      <c r="O1158">
+        <v>0</v>
+      </c>
+      <c r="P1158">
+        <v>2</v>
+      </c>
+      <c r="Q1158">
+        <v>15</v>
+      </c>
+      <c r="R1158">
+        <v>54</v>
+      </c>
+      <c r="S1158">
+        <v>0</v>
+      </c>
+      <c r="T1158">
+        <v>1</v>
+      </c>
+      <c r="AB1158">
+        <v>15</v>
+      </c>
+      <c r="AC1158">
+        <v>15</v>
+      </c>
+      <c r="AD1158" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1159">
+        <v>1</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1159">
+        <v>0</v>
+      </c>
+      <c r="E1159">
+        <v>104</v>
+      </c>
+      <c r="F1159">
+        <v>285</v>
+      </c>
+      <c r="G1159" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1159">
+        <v>14</v>
+      </c>
+      <c r="I1159" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1159" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1159" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1159">
+        <v>1</v>
+      </c>
+      <c r="O1159">
+        <v>0</v>
+      </c>
+      <c r="P1159">
+        <v>2</v>
+      </c>
+      <c r="Q1159">
+        <v>16</v>
+      </c>
+      <c r="R1159">
+        <v>55</v>
+      </c>
+      <c r="S1159">
+        <v>0</v>
+      </c>
+      <c r="T1159">
+        <v>1</v>
+      </c>
+      <c r="AB1159">
+        <v>16</v>
+      </c>
+      <c r="AC1159">
+        <v>16</v>
+      </c>
+      <c r="AD1159" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1160">
+        <v>2</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1160">
+        <v>0</v>
+      </c>
+      <c r="E1160">
+        <v>104</v>
+      </c>
+      <c r="F1160">
+        <v>285</v>
+      </c>
+      <c r="G1160" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1160">
+        <v>14</v>
+      </c>
+      <c r="I1160" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1160" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1160" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1160">
+        <v>1</v>
+      </c>
+      <c r="O1160">
+        <v>0</v>
+      </c>
+      <c r="P1160">
+        <v>1</v>
+      </c>
+      <c r="Q1160">
+        <v>16</v>
+      </c>
+      <c r="R1160">
+        <v>55</v>
+      </c>
+      <c r="S1160">
+        <v>0</v>
+      </c>
+      <c r="T1160">
+        <v>1</v>
+      </c>
+      <c r="AB1160">
+        <v>16</v>
+      </c>
+      <c r="AC1160">
+        <v>16</v>
+      </c>
+      <c r="AD1160" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1161">
+        <v>1</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1161">
+        <v>0</v>
+      </c>
+      <c r="E1161">
+        <v>104</v>
+      </c>
+      <c r="F1161">
+        <v>285</v>
+      </c>
+      <c r="G1161" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1161">
+        <v>14</v>
+      </c>
+      <c r="I1161" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1161" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1161" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1161">
+        <v>1</v>
+      </c>
+      <c r="O1161">
+        <v>0</v>
+      </c>
+      <c r="P1161">
+        <v>1</v>
+      </c>
+      <c r="Q1161">
+        <v>17</v>
+      </c>
+      <c r="R1161">
+        <v>56</v>
+      </c>
+      <c r="S1161">
+        <v>0</v>
+      </c>
+      <c r="T1161">
+        <v>1</v>
+      </c>
+      <c r="AB1161">
+        <v>17</v>
+      </c>
+      <c r="AC1161">
+        <v>17</v>
+      </c>
+      <c r="AD1161" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1162">
+        <v>2</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1162">
+        <v>0</v>
+      </c>
+      <c r="E1162">
+        <v>104</v>
+      </c>
+      <c r="F1162">
+        <v>285</v>
+      </c>
+      <c r="G1162" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1162">
+        <v>14</v>
+      </c>
+      <c r="I1162" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1162" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1162" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1162">
+        <v>1</v>
+      </c>
+      <c r="O1162">
+        <v>0</v>
+      </c>
+      <c r="P1162">
+        <v>2</v>
+      </c>
+      <c r="Q1162">
+        <v>17</v>
+      </c>
+      <c r="R1162">
+        <v>56</v>
+      </c>
+      <c r="S1162">
+        <v>0</v>
+      </c>
+      <c r="T1162">
+        <v>1</v>
+      </c>
+      <c r="AB1162">
+        <v>17</v>
+      </c>
+      <c r="AC1162">
+        <v>17</v>
+      </c>
+      <c r="AD1162" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1163">
+        <v>1</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1163">
+        <v>0</v>
+      </c>
+      <c r="E1163">
+        <v>104</v>
+      </c>
+      <c r="F1163">
+        <v>285</v>
+      </c>
+      <c r="G1163" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1163">
+        <v>14</v>
+      </c>
+      <c r="I1163" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1163" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1163" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1163">
+        <v>1</v>
+      </c>
+      <c r="O1163">
+        <v>0</v>
+      </c>
+      <c r="P1163">
+        <v>2</v>
+      </c>
+      <c r="Q1163">
+        <v>18</v>
+      </c>
+      <c r="R1163">
+        <v>57</v>
+      </c>
+      <c r="S1163">
+        <v>0</v>
+      </c>
+      <c r="T1163">
+        <v>1</v>
+      </c>
+      <c r="AB1163">
+        <v>18</v>
+      </c>
+      <c r="AC1163">
+        <v>18</v>
+      </c>
+      <c r="AD1163" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1164">
+        <v>2</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1164">
+        <v>0</v>
+      </c>
+      <c r="E1164">
+        <v>104</v>
+      </c>
+      <c r="F1164">
+        <v>285</v>
+      </c>
+      <c r="G1164" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1164">
+        <v>14</v>
+      </c>
+      <c r="I1164" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1164" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1164" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1164">
+        <v>1</v>
+      </c>
+      <c r="O1164">
+        <v>0</v>
+      </c>
+      <c r="P1164">
+        <v>1</v>
+      </c>
+      <c r="Q1164">
+        <v>18</v>
+      </c>
+      <c r="R1164">
+        <v>57</v>
+      </c>
+      <c r="S1164">
+        <v>0</v>
+      </c>
+      <c r="T1164">
+        <v>1</v>
+      </c>
+      <c r="AB1164">
+        <v>18</v>
+      </c>
+      <c r="AC1164">
+        <v>18</v>
+      </c>
+      <c r="AD1164" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1165">
+        <v>1</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1165">
+        <v>0</v>
+      </c>
+      <c r="E1165">
+        <v>104</v>
+      </c>
+      <c r="F1165">
+        <v>285</v>
+      </c>
+      <c r="G1165" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1165">
+        <v>14</v>
+      </c>
+      <c r="I1165" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1165" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1165" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1165">
+        <v>1</v>
+      </c>
+      <c r="O1165">
+        <v>0</v>
+      </c>
+      <c r="P1165">
+        <v>1</v>
+      </c>
+      <c r="Q1165">
+        <v>19</v>
+      </c>
+      <c r="R1165">
+        <v>58</v>
+      </c>
+      <c r="S1165">
+        <v>0</v>
+      </c>
+      <c r="T1165">
+        <v>1</v>
+      </c>
+      <c r="AB1165">
+        <v>19</v>
+      </c>
+      <c r="AC1165">
+        <v>19</v>
+      </c>
+      <c r="AD1165" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1166">
+        <v>2</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1166">
+        <v>0</v>
+      </c>
+      <c r="E1166">
+        <v>104</v>
+      </c>
+      <c r="F1166">
+        <v>285</v>
+      </c>
+      <c r="G1166" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1166">
+        <v>14</v>
+      </c>
+      <c r="I1166" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1166" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1166" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1166">
+        <v>1</v>
+      </c>
+      <c r="O1166">
+        <v>0</v>
+      </c>
+      <c r="P1166">
+        <v>2</v>
+      </c>
+      <c r="Q1166">
+        <v>19</v>
+      </c>
+      <c r="R1166">
+        <v>58</v>
+      </c>
+      <c r="S1166">
+        <v>0</v>
+      </c>
+      <c r="T1166">
+        <v>1</v>
+      </c>
+      <c r="AB1166">
+        <v>19</v>
+      </c>
+      <c r="AC1166">
+        <v>19</v>
+      </c>
+      <c r="AD1166" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1167">
+        <v>1</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1167">
+        <v>0</v>
+      </c>
+      <c r="E1167">
+        <v>104</v>
+      </c>
+      <c r="F1167">
+        <v>285</v>
+      </c>
+      <c r="G1167" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1167">
+        <v>14</v>
+      </c>
+      <c r="I1167" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1167" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1167" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1167">
+        <v>1</v>
+      </c>
+      <c r="O1167">
+        <v>0</v>
+      </c>
+      <c r="P1167">
+        <v>2</v>
+      </c>
+      <c r="Q1167">
+        <v>20</v>
+      </c>
+      <c r="R1167">
+        <v>59</v>
+      </c>
+      <c r="S1167">
+        <v>0</v>
+      </c>
+      <c r="T1167">
+        <v>1</v>
+      </c>
+      <c r="AB1167">
+        <v>20</v>
+      </c>
+      <c r="AC1167">
+        <v>20</v>
+      </c>
+      <c r="AD1167" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1168">
+        <v>2</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1168">
+        <v>0</v>
+      </c>
+      <c r="E1168">
+        <v>104</v>
+      </c>
+      <c r="F1168">
+        <v>285</v>
+      </c>
+      <c r="G1168" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1168">
+        <v>14</v>
+      </c>
+      <c r="I1168" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1168" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1168" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1168">
+        <v>1</v>
+      </c>
+      <c r="O1168">
+        <v>0</v>
+      </c>
+      <c r="P1168">
+        <v>1</v>
+      </c>
+      <c r="Q1168">
+        <v>20</v>
+      </c>
+      <c r="R1168">
+        <v>59</v>
+      </c>
+      <c r="S1168">
+        <v>0</v>
+      </c>
+      <c r="T1168">
+        <v>1</v>
+      </c>
+      <c r="AB1168">
+        <v>20</v>
+      </c>
+      <c r="AC1168">
+        <v>20</v>
+      </c>
+      <c r="AD1168" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1169">
+        <v>1</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1169">
+        <v>0</v>
+      </c>
+      <c r="E1169">
+        <v>104</v>
+      </c>
+      <c r="F1169">
+        <v>285</v>
+      </c>
+      <c r="G1169" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1169">
+        <v>14</v>
+      </c>
+      <c r="I1169" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1169" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1169" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1169">
+        <v>1</v>
+      </c>
+      <c r="O1169">
+        <v>0</v>
+      </c>
+      <c r="P1169">
+        <v>1</v>
+      </c>
+      <c r="Q1169">
+        <v>21</v>
+      </c>
+      <c r="R1169">
+        <v>60</v>
+      </c>
+      <c r="S1169">
+        <v>0</v>
+      </c>
+      <c r="T1169">
+        <v>1</v>
+      </c>
+      <c r="AB1169">
+        <v>21</v>
+      </c>
+      <c r="AC1169">
+        <v>21</v>
+      </c>
+      <c r="AD1169" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1170">
+        <v>2</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1170">
+        <v>0</v>
+      </c>
+      <c r="E1170">
+        <v>104</v>
+      </c>
+      <c r="F1170">
+        <v>285</v>
+      </c>
+      <c r="G1170" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1170">
+        <v>14</v>
+      </c>
+      <c r="I1170" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1170" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1170" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1170">
+        <v>1</v>
+      </c>
+      <c r="O1170">
+        <v>0</v>
+      </c>
+      <c r="P1170">
+        <v>2</v>
+      </c>
+      <c r="Q1170">
+        <v>21</v>
+      </c>
+      <c r="R1170">
+        <v>60</v>
+      </c>
+      <c r="S1170">
+        <v>0</v>
+      </c>
+      <c r="T1170">
+        <v>1</v>
+      </c>
+      <c r="AB1170">
+        <v>21</v>
+      </c>
+      <c r="AC1170">
+        <v>21</v>
+      </c>
+      <c r="AD1170" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1171">
+        <v>1</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1171">
+        <v>0</v>
+      </c>
+      <c r="E1171">
+        <v>104</v>
+      </c>
+      <c r="F1171">
+        <v>285</v>
+      </c>
+      <c r="G1171" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1171">
+        <v>14</v>
+      </c>
+      <c r="I1171" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1171" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1171" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1171">
+        <v>1</v>
+      </c>
+      <c r="O1171">
+        <v>0</v>
+      </c>
+      <c r="P1171">
+        <v>2</v>
+      </c>
+      <c r="Q1171">
+        <v>22</v>
+      </c>
+      <c r="R1171">
+        <v>61</v>
+      </c>
+      <c r="S1171">
+        <v>0</v>
+      </c>
+      <c r="T1171">
+        <v>1</v>
+      </c>
+      <c r="AB1171">
+        <v>22</v>
+      </c>
+      <c r="AC1171">
+        <v>22</v>
+      </c>
+      <c r="AD1171" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1172">
+        <v>2</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1172">
+        <v>0</v>
+      </c>
+      <c r="E1172">
+        <v>104</v>
+      </c>
+      <c r="F1172">
+        <v>285</v>
+      </c>
+      <c r="G1172" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1172">
+        <v>14</v>
+      </c>
+      <c r="I1172" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1172" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1172" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1172">
+        <v>1</v>
+      </c>
+      <c r="O1172">
+        <v>0</v>
+      </c>
+      <c r="P1172">
+        <v>1</v>
+      </c>
+      <c r="Q1172">
+        <v>22</v>
+      </c>
+      <c r="R1172">
+        <v>61</v>
+      </c>
+      <c r="S1172">
+        <v>0</v>
+      </c>
+      <c r="T1172">
+        <v>1</v>
+      </c>
+      <c r="AB1172">
+        <v>22</v>
+      </c>
+      <c r="AC1172">
+        <v>22</v>
+      </c>
+      <c r="AD1172" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1173">
+        <v>1</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1173">
+        <v>0</v>
+      </c>
+      <c r="E1173">
+        <v>104</v>
+      </c>
+      <c r="F1173">
+        <v>285</v>
+      </c>
+      <c r="G1173" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1173">
+        <v>14</v>
+      </c>
+      <c r="I1173" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1173" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1173" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1173">
+        <v>1</v>
+      </c>
+      <c r="O1173">
+        <v>0</v>
+      </c>
+      <c r="P1173">
+        <v>1</v>
+      </c>
+      <c r="Q1173">
+        <v>23</v>
+      </c>
+      <c r="R1173">
+        <v>62</v>
+      </c>
+      <c r="S1173">
+        <v>0</v>
+      </c>
+      <c r="T1173">
+        <v>1</v>
+      </c>
+      <c r="AB1173">
+        <v>23</v>
+      </c>
+      <c r="AC1173">
+        <v>23</v>
+      </c>
+      <c r="AD1173" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1174">
+        <v>2</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1174">
+        <v>0</v>
+      </c>
+      <c r="E1174">
+        <v>104</v>
+      </c>
+      <c r="F1174">
+        <v>285</v>
+      </c>
+      <c r="G1174" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1174">
+        <v>14</v>
+      </c>
+      <c r="I1174" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1174" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1174" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1174">
+        <v>1</v>
+      </c>
+      <c r="O1174">
+        <v>0</v>
+      </c>
+      <c r="P1174">
+        <v>2</v>
+      </c>
+      <c r="Q1174">
+        <v>23</v>
+      </c>
+      <c r="R1174">
+        <v>62</v>
+      </c>
+      <c r="S1174">
+        <v>0</v>
+      </c>
+      <c r="T1174">
+        <v>1</v>
+      </c>
+      <c r="AB1174">
+        <v>23</v>
+      </c>
+      <c r="AC1174">
+        <v>23</v>
+      </c>
+      <c r="AD1174" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1175">
+        <v>1</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1175">
+        <v>0</v>
+      </c>
+      <c r="E1175">
+        <v>104</v>
+      </c>
+      <c r="F1175">
+        <v>285</v>
+      </c>
+      <c r="G1175" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1175">
+        <v>14</v>
+      </c>
+      <c r="I1175" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1175" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1175" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1175">
+        <v>1</v>
+      </c>
+      <c r="O1175">
+        <v>0</v>
+      </c>
+      <c r="P1175">
+        <v>2</v>
+      </c>
+      <c r="Q1175">
+        <v>24</v>
+      </c>
+      <c r="R1175">
+        <v>63</v>
+      </c>
+      <c r="S1175">
+        <v>0</v>
+      </c>
+      <c r="T1175">
+        <v>1</v>
+      </c>
+      <c r="AB1175">
+        <v>24</v>
+      </c>
+      <c r="AC1175">
+        <v>24</v>
+      </c>
+      <c r="AD1175" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1176">
+        <v>2</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1176">
+        <v>0</v>
+      </c>
+      <c r="E1176">
+        <v>104</v>
+      </c>
+      <c r="F1176">
+        <v>285</v>
+      </c>
+      <c r="G1176" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1176">
+        <v>14</v>
+      </c>
+      <c r="I1176" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1176" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1176" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1176">
+        <v>1</v>
+      </c>
+      <c r="O1176">
+        <v>0</v>
+      </c>
+      <c r="P1176">
+        <v>1</v>
+      </c>
+      <c r="Q1176">
+        <v>24</v>
+      </c>
+      <c r="R1176">
+        <v>63</v>
+      </c>
+      <c r="S1176">
+        <v>0</v>
+      </c>
+      <c r="T1176">
+        <v>1</v>
+      </c>
+      <c r="AB1176">
+        <v>24</v>
+      </c>
+      <c r="AC1176">
+        <v>24</v>
+      </c>
+      <c r="AD1176" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1177">
+        <v>1</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1177">
+        <v>0</v>
+      </c>
+      <c r="E1177">
+        <v>104</v>
+      </c>
+      <c r="F1177">
+        <v>285</v>
+      </c>
+      <c r="G1177" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1177">
+        <v>14</v>
+      </c>
+      <c r="I1177" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1177" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1177" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1177">
+        <v>1</v>
+      </c>
+      <c r="O1177">
+        <v>0</v>
+      </c>
+      <c r="P1177">
+        <v>1</v>
+      </c>
+      <c r="Q1177">
+        <v>25</v>
+      </c>
+      <c r="R1177">
+        <v>64</v>
+      </c>
+      <c r="S1177">
+        <v>0</v>
+      </c>
+      <c r="T1177">
+        <v>1</v>
+      </c>
+      <c r="AB1177">
+        <v>25</v>
+      </c>
+      <c r="AC1177">
+        <v>25</v>
+      </c>
+      <c r="AD1177" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1178">
+        <v>2</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1178">
+        <v>0</v>
+      </c>
+      <c r="E1178">
+        <v>104</v>
+      </c>
+      <c r="F1178">
+        <v>285</v>
+      </c>
+      <c r="G1178" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1178">
+        <v>14</v>
+      </c>
+      <c r="I1178" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1178" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1178" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1178">
+        <v>1</v>
+      </c>
+      <c r="O1178">
+        <v>0</v>
+      </c>
+      <c r="P1178">
+        <v>2</v>
+      </c>
+      <c r="Q1178">
+        <v>25</v>
+      </c>
+      <c r="R1178">
+        <v>64</v>
+      </c>
+      <c r="S1178">
+        <v>0</v>
+      </c>
+      <c r="T1178">
+        <v>1</v>
+      </c>
+      <c r="AB1178">
+        <v>25</v>
+      </c>
+      <c r="AC1178">
+        <v>25</v>
+      </c>
+      <c r="AD1178" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1179">
+        <v>1</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1179">
+        <v>0</v>
+      </c>
+      <c r="E1179">
+        <v>104</v>
+      </c>
+      <c r="F1179">
+        <v>285</v>
+      </c>
+      <c r="G1179" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1179">
+        <v>14</v>
+      </c>
+      <c r="I1179" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1179" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1179" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1179">
+        <v>1</v>
+      </c>
+      <c r="O1179">
+        <v>0</v>
+      </c>
+      <c r="P1179">
+        <v>2</v>
+      </c>
+      <c r="Q1179">
+        <v>26</v>
+      </c>
+      <c r="R1179">
+        <v>65</v>
+      </c>
+      <c r="S1179">
+        <v>0</v>
+      </c>
+      <c r="T1179">
+        <v>1</v>
+      </c>
+      <c r="AB1179">
+        <v>26</v>
+      </c>
+      <c r="AC1179">
+        <v>26</v>
+      </c>
+      <c r="AD1179" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1180">
+        <v>2</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1180">
+        <v>0</v>
+      </c>
+      <c r="E1180">
+        <v>104</v>
+      </c>
+      <c r="F1180">
+        <v>285</v>
+      </c>
+      <c r="G1180" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1180">
+        <v>14</v>
+      </c>
+      <c r="I1180" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1180" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1180" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1180">
+        <v>1</v>
+      </c>
+      <c r="O1180">
+        <v>0</v>
+      </c>
+      <c r="P1180">
+        <v>1</v>
+      </c>
+      <c r="Q1180">
+        <v>26</v>
+      </c>
+      <c r="R1180">
+        <v>65</v>
+      </c>
+      <c r="S1180">
+        <v>0</v>
+      </c>
+      <c r="T1180">
+        <v>1</v>
+      </c>
+      <c r="AB1180">
+        <v>26</v>
+      </c>
+      <c r="AC1180">
+        <v>26</v>
+      </c>
+      <c r="AD1180" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1181">
+        <v>1</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1181">
+        <v>0</v>
+      </c>
+      <c r="E1181">
+        <v>104</v>
+      </c>
+      <c r="F1181">
+        <v>285</v>
+      </c>
+      <c r="G1181" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1181">
+        <v>14</v>
+      </c>
+      <c r="I1181" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1181" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1181" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1181">
+        <v>1</v>
+      </c>
+      <c r="O1181">
+        <v>0</v>
+      </c>
+      <c r="P1181">
+        <v>1</v>
+      </c>
+      <c r="Q1181">
+        <v>27</v>
+      </c>
+      <c r="R1181">
+        <v>66</v>
+      </c>
+      <c r="S1181">
+        <v>0</v>
+      </c>
+      <c r="T1181">
+        <v>1</v>
+      </c>
+      <c r="AB1181">
+        <v>27</v>
+      </c>
+      <c r="AC1181">
+        <v>27</v>
+      </c>
+      <c r="AD1181" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1182">
+        <v>2</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1182">
+        <v>0</v>
+      </c>
+      <c r="E1182">
+        <v>104</v>
+      </c>
+      <c r="F1182">
+        <v>285</v>
+      </c>
+      <c r="G1182" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1182">
+        <v>14</v>
+      </c>
+      <c r="I1182" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1182" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1182" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1182">
+        <v>1</v>
+      </c>
+      <c r="O1182">
+        <v>0</v>
+      </c>
+      <c r="P1182">
+        <v>2</v>
+      </c>
+      <c r="Q1182">
+        <v>27</v>
+      </c>
+      <c r="R1182">
+        <v>66</v>
+      </c>
+      <c r="S1182">
+        <v>0</v>
+      </c>
+      <c r="T1182">
+        <v>1</v>
+      </c>
+      <c r="AB1182">
+        <v>27</v>
+      </c>
+      <c r="AC1182">
+        <v>27</v>
+      </c>
+      <c r="AD1182" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1183">
+        <v>1</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1183">
+        <v>0</v>
+      </c>
+      <c r="E1183">
+        <v>104</v>
+      </c>
+      <c r="F1183">
+        <v>285</v>
+      </c>
+      <c r="G1183" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1183">
+        <v>14</v>
+      </c>
+      <c r="I1183" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1183" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1183" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1183">
+        <v>1</v>
+      </c>
+      <c r="O1183">
+        <v>0</v>
+      </c>
+      <c r="P1183">
+        <v>2</v>
+      </c>
+      <c r="Q1183">
+        <v>28</v>
+      </c>
+      <c r="R1183">
+        <v>67</v>
+      </c>
+      <c r="S1183">
+        <v>0</v>
+      </c>
+      <c r="T1183">
+        <v>1</v>
+      </c>
+      <c r="AB1183">
+        <v>28</v>
+      </c>
+      <c r="AC1183">
+        <v>28</v>
+      </c>
+      <c r="AD1183" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1184">
+        <v>2</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1184">
+        <v>0</v>
+      </c>
+      <c r="E1184">
+        <v>104</v>
+      </c>
+      <c r="F1184">
+        <v>285</v>
+      </c>
+      <c r="G1184" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1184">
+        <v>14</v>
+      </c>
+      <c r="I1184" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1184" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1184" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1184">
+        <v>1</v>
+      </c>
+      <c r="O1184">
+        <v>0</v>
+      </c>
+      <c r="P1184">
+        <v>1</v>
+      </c>
+      <c r="Q1184">
+        <v>28</v>
+      </c>
+      <c r="R1184">
+        <v>67</v>
+      </c>
+      <c r="S1184">
+        <v>0</v>
+      </c>
+      <c r="T1184">
+        <v>1</v>
+      </c>
+      <c r="AB1184">
+        <v>28</v>
+      </c>
+      <c r="AC1184">
+        <v>28</v>
+      </c>
+      <c r="AD1184" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1185">
+        <v>1</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1185">
+        <v>0</v>
+      </c>
+      <c r="E1185">
+        <v>104</v>
+      </c>
+      <c r="F1185">
+        <v>285</v>
+      </c>
+      <c r="G1185" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1185">
+        <v>14</v>
+      </c>
+      <c r="I1185" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1185" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1185" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1185">
+        <v>1</v>
+      </c>
+      <c r="O1185">
+        <v>0</v>
+      </c>
+      <c r="P1185">
+        <v>1</v>
+      </c>
+      <c r="Q1185">
+        <v>29</v>
+      </c>
+      <c r="R1185">
+        <v>68</v>
+      </c>
+      <c r="S1185">
+        <v>0</v>
+      </c>
+      <c r="T1185">
+        <v>1</v>
+      </c>
+      <c r="AB1185">
+        <v>29</v>
+      </c>
+      <c r="AC1185">
+        <v>29</v>
+      </c>
+      <c r="AD1185" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1186">
+        <v>2</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1186">
+        <v>0</v>
+      </c>
+      <c r="E1186">
+        <v>104</v>
+      </c>
+      <c r="F1186">
+        <v>285</v>
+      </c>
+      <c r="G1186" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1186">
+        <v>14</v>
+      </c>
+      <c r="I1186" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1186" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1186" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1186">
+        <v>1</v>
+      </c>
+      <c r="O1186">
+        <v>0</v>
+      </c>
+      <c r="P1186">
+        <v>2</v>
+      </c>
+      <c r="Q1186">
+        <v>29</v>
+      </c>
+      <c r="R1186">
+        <v>68</v>
+      </c>
+      <c r="S1186">
+        <v>0</v>
+      </c>
+      <c r="T1186">
+        <v>1</v>
+      </c>
+      <c r="AB1186">
+        <v>29</v>
+      </c>
+      <c r="AC1186">
+        <v>29</v>
+      </c>
+      <c r="AD1186" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1187">
+        <v>1</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1187">
+        <v>0</v>
+      </c>
+      <c r="E1187">
+        <v>104</v>
+      </c>
+      <c r="F1187">
+        <v>285</v>
+      </c>
+      <c r="G1187" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1187">
+        <v>14</v>
+      </c>
+      <c r="I1187" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1187" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1187" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1187">
+        <v>1</v>
+      </c>
+      <c r="O1187">
+        <v>0</v>
+      </c>
+      <c r="P1187">
+        <v>2</v>
+      </c>
+      <c r="Q1187">
+        <v>30</v>
+      </c>
+      <c r="R1187">
+        <v>69</v>
+      </c>
+      <c r="S1187">
+        <v>0</v>
+      </c>
+      <c r="T1187">
+        <v>1</v>
+      </c>
+      <c r="AB1187">
+        <v>30</v>
+      </c>
+      <c r="AC1187">
+        <v>30</v>
+      </c>
+      <c r="AD1187" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1188">
+        <v>2</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1188">
+        <v>0</v>
+      </c>
+      <c r="E1188">
+        <v>104</v>
+      </c>
+      <c r="F1188">
+        <v>285</v>
+      </c>
+      <c r="G1188" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1188">
+        <v>14</v>
+      </c>
+      <c r="I1188" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1188" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1188" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1188">
+        <v>1</v>
+      </c>
+      <c r="O1188">
+        <v>0</v>
+      </c>
+      <c r="P1188">
+        <v>1</v>
+      </c>
+      <c r="Q1188">
+        <v>30</v>
+      </c>
+      <c r="R1188">
+        <v>69</v>
+      </c>
+      <c r="S1188">
+        <v>0</v>
+      </c>
+      <c r="T1188">
+        <v>1</v>
+      </c>
+      <c r="AB1188">
+        <v>30</v>
+      </c>
+      <c r="AC1188">
+        <v>30</v>
+      </c>
+      <c r="AD1188" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1189">
+        <v>1</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1189">
+        <v>0</v>
+      </c>
+      <c r="E1189">
+        <v>104</v>
+      </c>
+      <c r="F1189">
+        <v>285</v>
+      </c>
+      <c r="G1189" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1189">
+        <v>14</v>
+      </c>
+      <c r="I1189" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1189" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1189" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1189">
+        <v>1</v>
+      </c>
+      <c r="O1189">
+        <v>0</v>
+      </c>
+      <c r="P1189">
+        <v>1</v>
+      </c>
+      <c r="Q1189">
+        <v>31</v>
+      </c>
+      <c r="R1189">
+        <v>70</v>
+      </c>
+      <c r="S1189">
+        <v>0</v>
+      </c>
+      <c r="T1189">
+        <v>1</v>
+      </c>
+      <c r="AB1189">
+        <v>31</v>
+      </c>
+      <c r="AC1189">
+        <v>31</v>
+      </c>
+      <c r="AD1189" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1190">
+        <v>2</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1190">
+        <v>0</v>
+      </c>
+      <c r="E1190">
+        <v>104</v>
+      </c>
+      <c r="F1190">
+        <v>285</v>
+      </c>
+      <c r="G1190" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1190">
+        <v>14</v>
+      </c>
+      <c r="I1190" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1190" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1190" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1190">
+        <v>1</v>
+      </c>
+      <c r="O1190">
+        <v>0</v>
+      </c>
+      <c r="P1190">
+        <v>2</v>
+      </c>
+      <c r="Q1190">
+        <v>31</v>
+      </c>
+      <c r="R1190">
+        <v>70</v>
+      </c>
+      <c r="S1190">
+        <v>0</v>
+      </c>
+      <c r="T1190">
+        <v>1</v>
+      </c>
+      <c r="AB1190">
+        <v>31</v>
+      </c>
+      <c r="AC1190">
+        <v>31</v>
+      </c>
+      <c r="AD1190" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1191">
+        <v>1</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1191">
+        <v>0</v>
+      </c>
+      <c r="E1191">
+        <v>104</v>
+      </c>
+      <c r="F1191">
+        <v>285</v>
+      </c>
+      <c r="G1191" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1191">
+        <v>14</v>
+      </c>
+      <c r="I1191" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1191" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1191" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1191">
+        <v>1</v>
+      </c>
+      <c r="O1191">
+        <v>0</v>
+      </c>
+      <c r="P1191">
+        <v>2</v>
+      </c>
+      <c r="Q1191">
+        <v>32</v>
+      </c>
+      <c r="R1191">
+        <v>71</v>
+      </c>
+      <c r="S1191">
+        <v>0</v>
+      </c>
+      <c r="T1191">
+        <v>1</v>
+      </c>
+      <c r="AB1191">
+        <v>32</v>
+      </c>
+      <c r="AC1191">
+        <v>32</v>
+      </c>
+      <c r="AD1191" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1192">
+        <v>2</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1192">
+        <v>0</v>
+      </c>
+      <c r="E1192">
+        <v>104</v>
+      </c>
+      <c r="F1192">
+        <v>285</v>
+      </c>
+      <c r="G1192" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1192">
+        <v>14</v>
+      </c>
+      <c r="I1192" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1192" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1192" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1192">
+        <v>1</v>
+      </c>
+      <c r="O1192">
+        <v>0</v>
+      </c>
+      <c r="P1192">
+        <v>1</v>
+      </c>
+      <c r="Q1192">
+        <v>32</v>
+      </c>
+      <c r="R1192">
+        <v>71</v>
+      </c>
+      <c r="S1192">
+        <v>0</v>
+      </c>
+      <c r="T1192">
+        <v>1</v>
+      </c>
+      <c r="AB1192">
+        <v>32</v>
+      </c>
+      <c r="AC1192">
+        <v>32</v>
+      </c>
+      <c r="AD1192" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1193">
+        <v>1</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1193">
+        <v>0</v>
+      </c>
+      <c r="E1193">
+        <v>104</v>
+      </c>
+      <c r="F1193">
+        <v>285</v>
+      </c>
+      <c r="G1193" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1193">
+        <v>14</v>
+      </c>
+      <c r="I1193" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1193" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1193" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1193">
+        <v>1</v>
+      </c>
+      <c r="O1193">
+        <v>0</v>
+      </c>
+      <c r="P1193">
+        <v>1</v>
+      </c>
+      <c r="Q1193">
+        <v>33</v>
+      </c>
+      <c r="R1193">
+        <v>72</v>
+      </c>
+      <c r="S1193">
+        <v>0</v>
+      </c>
+      <c r="T1193">
+        <v>1</v>
+      </c>
+      <c r="AB1193">
+        <v>33</v>
+      </c>
+      <c r="AC1193">
+        <v>33</v>
+      </c>
+      <c r="AD1193" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1194">
+        <v>2</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1194">
+        <v>0</v>
+      </c>
+      <c r="E1194">
+        <v>104</v>
+      </c>
+      <c r="F1194">
+        <v>285</v>
+      </c>
+      <c r="G1194" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1194">
+        <v>14</v>
+      </c>
+      <c r="I1194" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1194" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1194" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1194">
+        <v>1</v>
+      </c>
+      <c r="O1194">
+        <v>0</v>
+      </c>
+      <c r="P1194">
+        <v>2</v>
+      </c>
+      <c r="Q1194">
+        <v>33</v>
+      </c>
+      <c r="R1194">
+        <v>72</v>
+      </c>
+      <c r="S1194">
+        <v>0</v>
+      </c>
+      <c r="T1194">
+        <v>1</v>
+      </c>
+      <c r="AB1194">
+        <v>33</v>
+      </c>
+      <c r="AC1194">
+        <v>33</v>
+      </c>
+      <c r="AD1194" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1195">
+        <v>1</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1195">
+        <v>0</v>
+      </c>
+      <c r="E1195">
+        <v>104</v>
+      </c>
+      <c r="F1195">
+        <v>285</v>
+      </c>
+      <c r="G1195" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1195">
+        <v>14</v>
+      </c>
+      <c r="I1195" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1195" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1195" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1195">
+        <v>1</v>
+      </c>
+      <c r="O1195">
+        <v>0</v>
+      </c>
+      <c r="P1195">
+        <v>2</v>
+      </c>
+      <c r="Q1195">
+        <v>34</v>
+      </c>
+      <c r="R1195">
+        <v>73</v>
+      </c>
+      <c r="S1195">
+        <v>0</v>
+      </c>
+      <c r="T1195">
+        <v>1</v>
+      </c>
+      <c r="AB1195">
+        <v>34</v>
+      </c>
+      <c r="AC1195">
+        <v>34</v>
+      </c>
+      <c r="AD1195" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1196">
+        <v>2</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1196">
+        <v>0</v>
+      </c>
+      <c r="E1196">
+        <v>104</v>
+      </c>
+      <c r="F1196">
+        <v>285</v>
+      </c>
+      <c r="G1196" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1196">
+        <v>14</v>
+      </c>
+      <c r="I1196" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1196" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1196" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1196">
+        <v>1</v>
+      </c>
+      <c r="O1196">
+        <v>0</v>
+      </c>
+      <c r="P1196">
+        <v>1</v>
+      </c>
+      <c r="Q1196">
+        <v>34</v>
+      </c>
+      <c r="R1196">
+        <v>73</v>
+      </c>
+      <c r="S1196">
+        <v>0</v>
+      </c>
+      <c r="T1196">
+        <v>1</v>
+      </c>
+      <c r="AB1196">
+        <v>34</v>
+      </c>
+      <c r="AC1196">
+        <v>34</v>
+      </c>
+      <c r="AD1196" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1197">
+        <v>1</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1197">
+        <v>0</v>
+      </c>
+      <c r="E1197">
+        <v>104</v>
+      </c>
+      <c r="F1197">
+        <v>285</v>
+      </c>
+      <c r="G1197" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1197">
+        <v>14</v>
+      </c>
+      <c r="I1197" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1197" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1197" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1197">
+        <v>1</v>
+      </c>
+      <c r="O1197">
+        <v>0</v>
+      </c>
+      <c r="P1197">
+        <v>1</v>
+      </c>
+      <c r="Q1197">
+        <v>35</v>
+      </c>
+      <c r="R1197">
+        <v>74</v>
+      </c>
+      <c r="S1197">
+        <v>0</v>
+      </c>
+      <c r="T1197">
+        <v>1</v>
+      </c>
+      <c r="AB1197">
+        <v>35</v>
+      </c>
+      <c r="AC1197">
+        <v>35</v>
+      </c>
+      <c r="AD1197" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1198">
+        <v>2</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1198">
+        <v>0</v>
+      </c>
+      <c r="E1198">
+        <v>104</v>
+      </c>
+      <c r="F1198">
+        <v>285</v>
+      </c>
+      <c r="G1198" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1198">
+        <v>14</v>
+      </c>
+      <c r="I1198" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1198" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1198" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1198">
+        <v>1</v>
+      </c>
+      <c r="O1198">
+        <v>0</v>
+      </c>
+      <c r="P1198">
+        <v>2</v>
+      </c>
+      <c r="Q1198">
+        <v>35</v>
+      </c>
+      <c r="R1198">
+        <v>74</v>
+      </c>
+      <c r="S1198">
+        <v>0</v>
+      </c>
+      <c r="T1198">
+        <v>1</v>
+      </c>
+      <c r="AB1198">
+        <v>35</v>
+      </c>
+      <c r="AC1198">
+        <v>35</v>
+      </c>
+      <c r="AD1198" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1199">
+        <v>1</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1199">
+        <v>0</v>
+      </c>
+      <c r="E1199">
+        <v>104</v>
+      </c>
+      <c r="F1199">
+        <v>285</v>
+      </c>
+      <c r="G1199" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1199">
+        <v>14</v>
+      </c>
+      <c r="I1199" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1199" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1199" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1199">
+        <v>1</v>
+      </c>
+      <c r="O1199">
+        <v>0</v>
+      </c>
+      <c r="P1199">
+        <v>2</v>
+      </c>
+      <c r="Q1199">
+        <v>36</v>
+      </c>
+      <c r="R1199">
+        <v>75</v>
+      </c>
+      <c r="S1199">
+        <v>0</v>
+      </c>
+      <c r="T1199">
+        <v>1</v>
+      </c>
+      <c r="AB1199">
+        <v>36</v>
+      </c>
+      <c r="AC1199">
+        <v>36</v>
+      </c>
+      <c r="AD1199" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1200">
+        <v>2</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1200">
+        <v>0</v>
+      </c>
+      <c r="E1200">
+        <v>104</v>
+      </c>
+      <c r="F1200">
+        <v>285</v>
+      </c>
+      <c r="G1200" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1200">
+        <v>14</v>
+      </c>
+      <c r="I1200" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1200" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1200" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1200">
+        <v>1</v>
+      </c>
+      <c r="O1200">
+        <v>0</v>
+      </c>
+      <c r="P1200">
+        <v>1</v>
+      </c>
+      <c r="Q1200">
+        <v>36</v>
+      </c>
+      <c r="R1200">
+        <v>75</v>
+      </c>
+      <c r="S1200">
+        <v>0</v>
+      </c>
+      <c r="T1200">
+        <v>1</v>
+      </c>
+      <c r="AB1200">
+        <v>36</v>
+      </c>
+      <c r="AC1200">
+        <v>36</v>
+      </c>
+      <c r="AD1200" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1201">
+        <v>1</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1201">
+        <v>0</v>
+      </c>
+      <c r="E1201">
+        <v>104</v>
+      </c>
+      <c r="F1201">
+        <v>285</v>
+      </c>
+      <c r="G1201" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1201">
+        <v>14</v>
+      </c>
+      <c r="I1201" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1201" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1201" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1201">
+        <v>1</v>
+      </c>
+      <c r="O1201">
+        <v>0</v>
+      </c>
+      <c r="P1201">
+        <v>1</v>
+      </c>
+      <c r="Q1201">
+        <v>37</v>
+      </c>
+      <c r="R1201">
+        <v>76</v>
+      </c>
+      <c r="S1201">
+        <v>0</v>
+      </c>
+      <c r="T1201">
+        <v>1</v>
+      </c>
+      <c r="AB1201">
+        <v>37</v>
+      </c>
+      <c r="AC1201">
+        <v>37</v>
+      </c>
+      <c r="AD1201" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1202">
+        <v>2</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1202">
+        <v>0</v>
+      </c>
+      <c r="E1202">
+        <v>104</v>
+      </c>
+      <c r="F1202">
+        <v>285</v>
+      </c>
+      <c r="G1202" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1202">
+        <v>14</v>
+      </c>
+      <c r="I1202" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1202" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1202" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1202">
+        <v>1</v>
+      </c>
+      <c r="O1202">
+        <v>0</v>
+      </c>
+      <c r="P1202">
+        <v>2</v>
+      </c>
+      <c r="Q1202">
+        <v>37</v>
+      </c>
+      <c r="R1202">
+        <v>76</v>
+      </c>
+      <c r="S1202">
+        <v>0</v>
+      </c>
+      <c r="T1202">
+        <v>1</v>
+      </c>
+      <c r="AB1202">
+        <v>37</v>
+      </c>
+      <c r="AC1202">
+        <v>37</v>
+      </c>
+      <c r="AD1202" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1203">
+        <v>1</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1203">
+        <v>0</v>
+      </c>
+      <c r="E1203">
+        <v>104</v>
+      </c>
+      <c r="F1203">
+        <v>285</v>
+      </c>
+      <c r="G1203" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1203">
+        <v>14</v>
+      </c>
+      <c r="I1203" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1203" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1203" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1203">
+        <v>1</v>
+      </c>
+      <c r="O1203">
+        <v>0</v>
+      </c>
+      <c r="P1203">
+        <v>2</v>
+      </c>
+      <c r="Q1203">
+        <v>38</v>
+      </c>
+      <c r="R1203">
+        <v>77</v>
+      </c>
+      <c r="S1203">
+        <v>0</v>
+      </c>
+      <c r="T1203">
+        <v>1</v>
+      </c>
+      <c r="AB1203">
+        <v>38</v>
+      </c>
+      <c r="AC1203">
+        <v>38</v>
+      </c>
+      <c r="AD1203" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1204">
+        <v>2</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1204">
+        <v>0</v>
+      </c>
+      <c r="E1204">
+        <v>104</v>
+      </c>
+      <c r="F1204">
+        <v>285</v>
+      </c>
+      <c r="G1204" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1204">
+        <v>14</v>
+      </c>
+      <c r="I1204" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1204" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1204" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1204">
+        <v>1</v>
+      </c>
+      <c r="O1204">
+        <v>0</v>
+      </c>
+      <c r="P1204">
+        <v>1</v>
+      </c>
+      <c r="Q1204">
+        <v>38</v>
+      </c>
+      <c r="R1204">
+        <v>77</v>
+      </c>
+      <c r="S1204">
+        <v>0</v>
+      </c>
+      <c r="T1204">
+        <v>1</v>
+      </c>
+      <c r="AB1204">
+        <v>38</v>
+      </c>
+      <c r="AC1204">
+        <v>38</v>
+      </c>
+      <c r="AD1204" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1205">
+        <v>1</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1205">
+        <v>0</v>
+      </c>
+      <c r="E1205">
+        <v>104</v>
+      </c>
+      <c r="F1205">
+        <v>285</v>
+      </c>
+      <c r="G1205" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1205">
+        <v>14</v>
+      </c>
+      <c r="I1205" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1205" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1205" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1205">
+        <v>1</v>
+      </c>
+      <c r="O1205">
+        <v>0</v>
+      </c>
+      <c r="P1205">
+        <v>1</v>
+      </c>
+      <c r="Q1205">
+        <v>39</v>
+      </c>
+      <c r="R1205">
+        <v>78</v>
+      </c>
+      <c r="S1205">
+        <v>0</v>
+      </c>
+      <c r="T1205">
+        <v>1</v>
+      </c>
+      <c r="AB1205">
+        <v>39</v>
+      </c>
+      <c r="AC1205">
+        <v>39</v>
+      </c>
+      <c r="AD1205" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1206">
+        <v>2</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1206">
+        <v>0</v>
+      </c>
+      <c r="E1206">
+        <v>104</v>
+      </c>
+      <c r="F1206">
+        <v>285</v>
+      </c>
+      <c r="G1206" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1206">
+        <v>14</v>
+      </c>
+      <c r="I1206" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1206" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1206" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1206">
+        <v>1</v>
+      </c>
+      <c r="O1206">
+        <v>0</v>
+      </c>
+      <c r="P1206">
+        <v>2</v>
+      </c>
+      <c r="Q1206">
+        <v>39</v>
+      </c>
+      <c r="R1206">
+        <v>78</v>
+      </c>
+      <c r="S1206">
+        <v>0</v>
+      </c>
+      <c r="T1206">
+        <v>1</v>
+      </c>
+      <c r="AB1206">
+        <v>39</v>
+      </c>
+      <c r="AC1206">
+        <v>39</v>
+      </c>
+      <c r="AD1206" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1207">
+        <v>1</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1207">
+        <v>0</v>
+      </c>
+      <c r="E1207">
+        <v>104</v>
+      </c>
+      <c r="F1207">
+        <v>285</v>
+      </c>
+      <c r="G1207" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1207">
+        <v>14</v>
+      </c>
+      <c r="I1207" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1207" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1207" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1207">
+        <v>1</v>
+      </c>
+      <c r="O1207">
+        <v>0</v>
+      </c>
+      <c r="P1207">
+        <v>2</v>
+      </c>
+      <c r="Q1207">
+        <v>40</v>
+      </c>
+      <c r="R1207">
+        <v>79</v>
+      </c>
+      <c r="S1207">
+        <v>0</v>
+      </c>
+      <c r="T1207">
+        <v>1</v>
+      </c>
+      <c r="AB1207">
+        <v>40</v>
+      </c>
+      <c r="AC1207">
+        <v>40</v>
+      </c>
+      <c r="AD1207" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1208">
+        <v>2</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1208">
+        <v>0</v>
+      </c>
+      <c r="E1208">
+        <v>104</v>
+      </c>
+      <c r="F1208">
+        <v>285</v>
+      </c>
+      <c r="G1208" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1208">
+        <v>14</v>
+      </c>
+      <c r="I1208" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1208" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1208" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1208">
+        <v>1</v>
+      </c>
+      <c r="O1208">
+        <v>0</v>
+      </c>
+      <c r="P1208">
+        <v>1</v>
+      </c>
+      <c r="Q1208">
+        <v>40</v>
+      </c>
+      <c r="R1208">
+        <v>79</v>
+      </c>
+      <c r="S1208">
+        <v>0</v>
+      </c>
+      <c r="T1208">
+        <v>1</v>
+      </c>
+      <c r="AB1208">
+        <v>40</v>
+      </c>
+      <c r="AC1208">
+        <v>40</v>
+      </c>
+      <c r="AD1208" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1208">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/raw.xlsx
+++ b/data/raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikklepl/Google Drive/4th Semester/Social and Cultural Dynamics in Cognition/Codenames/Cooperation-between-friends/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83642BA5-AA29-514E-A569-3F1752D85035}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EF6D55-1451-594E-AE1D-C6F69BFCFA8B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7906" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7908" uniqueCount="290">
   <si>
     <t>participant.id_in_session</t>
   </si>
@@ -888,6 +888,9 @@
   <si>
     <t>undead</t>
   </si>
+  <si>
+    <t>6, 16</t>
+  </si>
 </sst>
 </file>
 
@@ -922,8 +925,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -1264,11 +1268,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ1208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1122" zoomScale="115" workbookViewId="0">
-      <selection activeCell="Z1139" sqref="Z1139"/>
+    <sheetView tabSelected="1" topLeftCell="P177" zoomScale="217" workbookViewId="0">
+      <selection activeCell="W181" sqref="W181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="23" max="23" width="8.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1337,7 +1344,7 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="X1" t="s">
@@ -1438,7 +1445,7 @@
       <c r="V2" t="s">
         <v>41</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="1" t="s">
         <v>89</v>
       </c>
       <c r="X2">
@@ -1524,7 +1531,7 @@
       <c r="V3" t="s">
         <v>41</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="1" t="s">
         <v>89</v>
       </c>
       <c r="X3">
@@ -1610,7 +1617,7 @@
       <c r="V4" t="s">
         <v>48</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="1" t="s">
         <v>49</v>
       </c>
       <c r="X4">
@@ -1696,7 +1703,7 @@
       <c r="V5" t="s">
         <v>48</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="1" t="s">
         <v>49</v>
       </c>
       <c r="X5">
@@ -1782,7 +1789,7 @@
       <c r="V6" t="s">
         <v>51</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X6">
@@ -1868,7 +1875,7 @@
       <c r="V7" t="s">
         <v>51</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" s="1" t="s">
         <v>52</v>
       </c>
       <c r="X7">
@@ -1954,7 +1961,7 @@
       <c r="V8" t="s">
         <v>60</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8" s="1" t="s">
         <v>56</v>
       </c>
       <c r="X8">
@@ -2040,7 +2047,7 @@
       <c r="V9" t="s">
         <v>60</v>
       </c>
-      <c r="W9" t="s">
+      <c r="W9" s="1" t="s">
         <v>56</v>
       </c>
       <c r="X9">
@@ -2126,7 +2133,7 @@
       <c r="V10" t="s">
         <v>65</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10" s="1" t="s">
         <v>66</v>
       </c>
       <c r="X10">
@@ -2212,7 +2219,7 @@
       <c r="V11" t="s">
         <v>65</v>
       </c>
-      <c r="W11" t="s">
+      <c r="W11" s="1" t="s">
         <v>66</v>
       </c>
       <c r="X11">
@@ -2298,7 +2305,7 @@
       <c r="V12" t="s">
         <v>67</v>
       </c>
-      <c r="W12" t="s">
+      <c r="W12" s="1" t="s">
         <v>68</v>
       </c>
       <c r="X12">
@@ -2384,7 +2391,7 @@
       <c r="V13" t="s">
         <v>67</v>
       </c>
-      <c r="W13" t="s">
+      <c r="W13" s="1" t="s">
         <v>68</v>
       </c>
       <c r="X13">
@@ -2470,7 +2477,7 @@
       <c r="V14" t="s">
         <v>70</v>
       </c>
-      <c r="W14" t="s">
+      <c r="W14" s="1" t="s">
         <v>71</v>
       </c>
       <c r="X14">
@@ -2556,7 +2563,7 @@
       <c r="V15" t="s">
         <v>70</v>
       </c>
-      <c r="W15" t="s">
+      <c r="W15" s="1" t="s">
         <v>71</v>
       </c>
       <c r="X15">
@@ -2642,7 +2649,7 @@
       <c r="V16" t="s">
         <v>73</v>
       </c>
-      <c r="W16" t="s">
+      <c r="W16" s="1" t="s">
         <v>74</v>
       </c>
       <c r="X16">
@@ -2728,7 +2735,7 @@
       <c r="V17" t="s">
         <v>73</v>
       </c>
-      <c r="W17" t="s">
+      <c r="W17" s="1" t="s">
         <v>74</v>
       </c>
       <c r="X17">
@@ -2814,7 +2821,7 @@
       <c r="V18" t="s">
         <v>75</v>
       </c>
-      <c r="W18" t="s">
+      <c r="W18" s="1" t="s">
         <v>57</v>
       </c>
       <c r="X18">
@@ -2900,7 +2907,7 @@
       <c r="V19" t="s">
         <v>75</v>
       </c>
-      <c r="W19" t="s">
+      <c r="W19" s="1" t="s">
         <v>57</v>
       </c>
       <c r="X19">
@@ -2986,7 +2993,7 @@
       <c r="V20" t="s">
         <v>76</v>
       </c>
-      <c r="W20" t="s">
+      <c r="W20" s="1" t="s">
         <v>77</v>
       </c>
       <c r="X20">
@@ -3072,7 +3079,7 @@
       <c r="V21" t="s">
         <v>76</v>
       </c>
-      <c r="W21" t="s">
+      <c r="W21" s="1" t="s">
         <v>77</v>
       </c>
       <c r="X21">
@@ -3158,7 +3165,7 @@
       <c r="V22" t="s">
         <v>78</v>
       </c>
-      <c r="W22" t="s">
+      <c r="W22" s="1" t="s">
         <v>79</v>
       </c>
       <c r="X22">
@@ -3244,7 +3251,7 @@
       <c r="V23" t="s">
         <v>78</v>
       </c>
-      <c r="W23" t="s">
+      <c r="W23" s="1" t="s">
         <v>79</v>
       </c>
       <c r="X23">
@@ -3330,7 +3337,7 @@
       <c r="V24" t="s">
         <v>81</v>
       </c>
-      <c r="W24" t="s">
+      <c r="W24" s="1" t="s">
         <v>82</v>
       </c>
       <c r="X24">
@@ -3416,7 +3423,7 @@
       <c r="V25" t="s">
         <v>81</v>
       </c>
-      <c r="W25" t="s">
+      <c r="W25" s="1" t="s">
         <v>82</v>
       </c>
       <c r="X25">
@@ -3502,7 +3509,7 @@
       <c r="V26" t="s">
         <v>83</v>
       </c>
-      <c r="W26" t="s">
+      <c r="W26" s="1" t="s">
         <v>84</v>
       </c>
       <c r="X26">
@@ -3588,7 +3595,7 @@
       <c r="V27" t="s">
         <v>83</v>
       </c>
-      <c r="W27" t="s">
+      <c r="W27" s="1" t="s">
         <v>84</v>
       </c>
       <c r="X27">
@@ -3674,7 +3681,7 @@
       <c r="V28" t="s">
         <v>85</v>
       </c>
-      <c r="W28" t="s">
+      <c r="W28" s="1" t="s">
         <v>86</v>
       </c>
       <c r="X28">
@@ -3760,7 +3767,7 @@
       <c r="V29" t="s">
         <v>85</v>
       </c>
-      <c r="W29" t="s">
+      <c r="W29" s="1" t="s">
         <v>86</v>
       </c>
       <c r="X29">
@@ -3846,7 +3853,7 @@
       <c r="V30" t="s">
         <v>88</v>
       </c>
-      <c r="W30" t="s">
+      <c r="W30" s="1" t="s">
         <v>55</v>
       </c>
       <c r="X30">
@@ -3932,7 +3939,7 @@
       <c r="V31" t="s">
         <v>88</v>
       </c>
-      <c r="W31" t="s">
+      <c r="W31" s="1" t="s">
         <v>55</v>
       </c>
       <c r="X31">
@@ -12858,7 +12865,7 @@
       <c r="V168" t="s">
         <v>93</v>
       </c>
-      <c r="W168">
+      <c r="W168" s="1">
         <v>3.17</v>
       </c>
       <c r="X168">
@@ -12944,7 +12951,7 @@
       <c r="V169" t="s">
         <v>93</v>
       </c>
-      <c r="W169">
+      <c r="W169" s="1">
         <v>3.17</v>
       </c>
       <c r="X169">
@@ -13030,7 +13037,7 @@
       <c r="V170" t="s">
         <v>99</v>
       </c>
-      <c r="W170" t="s">
+      <c r="W170" s="1" t="s">
         <v>100</v>
       </c>
       <c r="X170">
@@ -13116,7 +13123,7 @@
       <c r="V171" t="s">
         <v>99</v>
       </c>
-      <c r="W171" t="s">
+      <c r="W171" s="1" t="s">
         <v>100</v>
       </c>
       <c r="X171">
@@ -13202,7 +13209,7 @@
       <c r="V172" t="s">
         <v>101</v>
       </c>
-      <c r="W172" t="s">
+      <c r="W172" s="1" t="s">
         <v>102</v>
       </c>
       <c r="X172">
@@ -13288,7 +13295,7 @@
       <c r="V173" t="s">
         <v>101</v>
       </c>
-      <c r="W173" t="s">
+      <c r="W173" s="1" t="s">
         <v>102</v>
       </c>
       <c r="X173">
@@ -13374,7 +13381,7 @@
       <c r="V174" t="s">
         <v>104</v>
       </c>
-      <c r="W174" t="s">
+      <c r="W174" s="1" t="s">
         <v>105</v>
       </c>
       <c r="X174">
@@ -13460,7 +13467,7 @@
       <c r="V175" t="s">
         <v>104</v>
       </c>
-      <c r="W175" t="s">
+      <c r="W175" s="1" t="s">
         <v>105</v>
       </c>
       <c r="X175">
@@ -13546,7 +13553,7 @@
       <c r="V176" t="s">
         <v>106</v>
       </c>
-      <c r="W176" t="s">
+      <c r="W176" s="1" t="s">
         <v>107</v>
       </c>
       <c r="X176">
@@ -13632,7 +13639,7 @@
       <c r="V177" t="s">
         <v>106</v>
       </c>
-      <c r="W177" t="s">
+      <c r="W177" s="1" t="s">
         <v>107</v>
       </c>
       <c r="X177">
@@ -13718,7 +13725,7 @@
       <c r="V178" t="s">
         <v>75</v>
       </c>
-      <c r="W178">
+      <c r="W178" s="1">
         <v>1</v>
       </c>
       <c r="X178">
@@ -13804,7 +13811,7 @@
       <c r="V179" t="s">
         <v>75</v>
       </c>
-      <c r="W179">
+      <c r="W179" s="1">
         <v>1</v>
       </c>
       <c r="X179">
@@ -13890,7 +13897,7 @@
       <c r="V180" t="s">
         <v>109</v>
       </c>
-      <c r="W180">
+      <c r="W180" s="1">
         <v>2.1</v>
       </c>
       <c r="X180">
@@ -13976,7 +13983,7 @@
       <c r="V181" t="s">
         <v>109</v>
       </c>
-      <c r="W181">
+      <c r="W181" s="1">
         <v>2.1</v>
       </c>
       <c r="X181">
@@ -14062,7 +14069,7 @@
       <c r="V182" t="s">
         <v>111</v>
       </c>
-      <c r="W182">
+      <c r="W182" s="1">
         <v>8</v>
       </c>
       <c r="X182">
@@ -14148,7 +14155,7 @@
       <c r="V183" t="s">
         <v>111</v>
       </c>
-      <c r="W183">
+      <c r="W183" s="1">
         <v>8</v>
       </c>
       <c r="X183">
@@ -14234,8 +14241,8 @@
       <c r="V184" t="s">
         <v>112</v>
       </c>
-      <c r="W184">
-        <v>6.16</v>
+      <c r="W184" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="X184">
         <v>5</v>
@@ -14320,8 +14327,8 @@
       <c r="V185" t="s">
         <v>112</v>
       </c>
-      <c r="W185">
-        <v>6.16</v>
+      <c r="W185" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="X185">
         <v>5</v>
@@ -14406,7 +14413,7 @@
       <c r="V186" t="s">
         <v>114</v>
       </c>
-      <c r="W186" t="s">
+      <c r="W186" s="1" t="s">
         <v>114</v>
       </c>
       <c r="X186">
@@ -14492,7 +14499,7 @@
       <c r="V187" t="s">
         <v>114</v>
       </c>
-      <c r="W187" t="s">
+      <c r="W187" s="1" t="s">
         <v>114</v>
       </c>
       <c r="X187">
@@ -14578,7 +14585,7 @@
       <c r="V188" t="s">
         <v>116</v>
       </c>
-      <c r="W188">
+      <c r="W188" s="1">
         <v>6.16</v>
       </c>
       <c r="X188">
@@ -14664,7 +14671,7 @@
       <c r="V189" t="s">
         <v>116</v>
       </c>
-      <c r="W189">
+      <c r="W189" s="1">
         <v>6.16</v>
       </c>
       <c r="X189">
@@ -14750,7 +14757,7 @@
       <c r="V190" t="s">
         <v>114</v>
       </c>
-      <c r="W190" t="s">
+      <c r="W190" s="1" t="s">
         <v>114</v>
       </c>
       <c r="X190">
@@ -14836,7 +14843,7 @@
       <c r="V191" t="s">
         <v>114</v>
       </c>
-      <c r="W191" t="s">
+      <c r="W191" s="1" t="s">
         <v>114</v>
       </c>
       <c r="X191">
@@ -14922,7 +14929,7 @@
       <c r="V192" t="s">
         <v>93</v>
       </c>
-      <c r="W192">
+      <c r="W192" s="1">
         <v>16</v>
       </c>
       <c r="X192">
@@ -15008,7 +15015,7 @@
       <c r="V193" t="s">
         <v>93</v>
       </c>
-      <c r="W193">
+      <c r="W193" s="1">
         <v>16</v>
       </c>
       <c r="X193">
@@ -23804,7 +23811,7 @@
       <c r="V328" t="s">
         <v>121</v>
       </c>
-      <c r="W328" t="s">
+      <c r="W328" s="1" t="s">
         <v>68</v>
       </c>
       <c r="X328">
@@ -23890,7 +23897,7 @@
       <c r="V329" t="s">
         <v>121</v>
       </c>
-      <c r="W329" t="s">
+      <c r="W329" s="1" t="s">
         <v>68</v>
       </c>
       <c r="X329">
@@ -23976,7 +23983,7 @@
       <c r="V330" t="s">
         <v>125</v>
       </c>
-      <c r="W330" t="s">
+      <c r="W330" s="1" t="s">
         <v>126</v>
       </c>
       <c r="X330">
@@ -24062,7 +24069,7 @@
       <c r="V331" t="s">
         <v>125</v>
       </c>
-      <c r="W331" t="s">
+      <c r="W331" s="1" t="s">
         <v>126</v>
       </c>
       <c r="X331">
@@ -24148,7 +24155,7 @@
       <c r="V332" t="s">
         <v>127</v>
       </c>
-      <c r="W332" t="s">
+      <c r="W332" s="1" t="s">
         <v>128</v>
       </c>
       <c r="X332">
@@ -24234,7 +24241,7 @@
       <c r="V333" t="s">
         <v>127</v>
       </c>
-      <c r="W333" t="s">
+      <c r="W333" s="1" t="s">
         <v>128</v>
       </c>
       <c r="X333">
@@ -24320,7 +24327,7 @@
       <c r="V334" t="s">
         <v>130</v>
       </c>
-      <c r="W334" t="s">
+      <c r="W334" s="1" t="s">
         <v>131</v>
       </c>
       <c r="X334">
@@ -24406,7 +24413,7 @@
       <c r="V335" t="s">
         <v>130</v>
       </c>
-      <c r="W335" t="s">
+      <c r="W335" s="1" t="s">
         <v>131</v>
       </c>
       <c r="X335">
@@ -24492,7 +24499,7 @@
       <c r="V336" t="s">
         <v>132</v>
       </c>
-      <c r="W336" t="s">
+      <c r="W336" s="1" t="s">
         <v>133</v>
       </c>
       <c r="X336">
@@ -24578,7 +24585,7 @@
       <c r="V337" t="s">
         <v>132</v>
       </c>
-      <c r="W337" t="s">
+      <c r="W337" s="1" t="s">
         <v>133</v>
       </c>
       <c r="X337">
@@ -24664,7 +24671,7 @@
       <c r="V338" t="s">
         <v>111</v>
       </c>
-      <c r="W338" t="s">
+      <c r="W338" s="1" t="s">
         <v>135</v>
       </c>
       <c r="X338">
@@ -24750,7 +24757,7 @@
       <c r="V339" t="s">
         <v>111</v>
       </c>
-      <c r="W339" t="s">
+      <c r="W339" s="1" t="s">
         <v>135</v>
       </c>
       <c r="X339">
@@ -24836,7 +24843,7 @@
       <c r="V340" t="s">
         <v>136</v>
       </c>
-      <c r="W340" t="s">
+      <c r="W340" s="1" t="s">
         <v>137</v>
       </c>
       <c r="X340">
@@ -24922,7 +24929,7 @@
       <c r="V341" t="s">
         <v>136</v>
       </c>
-      <c r="W341" t="s">
+      <c r="W341" s="1" t="s">
         <v>137</v>
       </c>
       <c r="X341">
@@ -25008,7 +25015,7 @@
       <c r="V342" t="s">
         <v>138</v>
       </c>
-      <c r="W342" t="s">
+      <c r="W342" s="1" t="s">
         <v>84</v>
       </c>
       <c r="X342">
@@ -25094,7 +25101,7 @@
       <c r="V343" t="s">
         <v>138</v>
       </c>
-      <c r="W343" t="s">
+      <c r="W343" s="1" t="s">
         <v>84</v>
       </c>
       <c r="X343">
@@ -25180,7 +25187,7 @@
       <c r="V344" t="s">
         <v>139</v>
       </c>
-      <c r="W344" t="s">
+      <c r="W344" s="1" t="s">
         <v>140</v>
       </c>
       <c r="X344">
@@ -25266,7 +25273,7 @@
       <c r="V345" t="s">
         <v>139</v>
       </c>
-      <c r="W345" t="s">
+      <c r="W345" s="1" t="s">
         <v>140</v>
       </c>
       <c r="X345">
@@ -25352,7 +25359,7 @@
       <c r="V346" t="s">
         <v>114</v>
       </c>
-      <c r="W346" t="s">
+      <c r="W346" s="1" t="s">
         <v>114</v>
       </c>
       <c r="X346" t="s">
@@ -25438,7 +25445,7 @@
       <c r="V347" t="s">
         <v>114</v>
       </c>
-      <c r="W347" t="s">
+      <c r="W347" s="1" t="s">
         <v>114</v>
       </c>
       <c r="X347" t="s">
@@ -25524,7 +25531,7 @@
       <c r="V348" t="s">
         <v>76</v>
       </c>
-      <c r="W348" t="s">
+      <c r="W348" s="1" t="s">
         <v>77</v>
       </c>
       <c r="X348">
@@ -25610,7 +25617,7 @@
       <c r="V349" t="s">
         <v>76</v>
       </c>
-      <c r="W349" t="s">
+      <c r="W349" s="1" t="s">
         <v>77</v>
       </c>
       <c r="X349">
@@ -34666,7 +34673,7 @@
       <c r="V488" t="s">
         <v>143</v>
       </c>
-      <c r="W488" t="s">
+      <c r="W488" s="1" t="s">
         <v>144</v>
       </c>
       <c r="X488">
@@ -34752,7 +34759,7 @@
       <c r="V489" t="s">
         <v>143</v>
       </c>
-      <c r="W489" t="s">
+      <c r="W489" s="1" t="s">
         <v>144</v>
       </c>
       <c r="X489">
@@ -34838,7 +34845,7 @@
       <c r="V490" t="s">
         <v>149</v>
       </c>
-      <c r="W490" t="s">
+      <c r="W490" s="1" t="s">
         <v>150</v>
       </c>
       <c r="X490">
@@ -34924,7 +34931,7 @@
       <c r="V491" t="s">
         <v>149</v>
       </c>
-      <c r="W491" t="s">
+      <c r="W491" s="1" t="s">
         <v>150</v>
       </c>
       <c r="X491">
@@ -35010,7 +35017,7 @@
       <c r="V492" t="s">
         <v>152</v>
       </c>
-      <c r="W492" t="s">
+      <c r="W492" s="1" t="s">
         <v>128</v>
       </c>
       <c r="X492">
@@ -35096,7 +35103,7 @@
       <c r="V493" t="s">
         <v>152</v>
       </c>
-      <c r="W493" t="s">
+      <c r="W493" s="1" t="s">
         <v>128</v>
       </c>
       <c r="X493">
@@ -35182,7 +35189,7 @@
       <c r="V494" t="s">
         <v>154</v>
       </c>
-      <c r="W494" t="s">
+      <c r="W494" s="1" t="s">
         <v>126</v>
       </c>
       <c r="X494">
@@ -35268,7 +35275,7 @@
       <c r="V495" t="s">
         <v>154</v>
       </c>
-      <c r="W495" t="s">
+      <c r="W495" s="1" t="s">
         <v>126</v>
       </c>
       <c r="X495">
@@ -35354,7 +35361,7 @@
       <c r="V496" t="s">
         <v>155</v>
       </c>
-      <c r="W496" t="s">
+      <c r="W496" s="1" t="s">
         <v>68</v>
       </c>
       <c r="X496">
@@ -35440,7 +35447,7 @@
       <c r="V497" t="s">
         <v>155</v>
       </c>
-      <c r="W497" t="s">
+      <c r="W497" s="1" t="s">
         <v>68</v>
       </c>
       <c r="X497">
@@ -35526,7 +35533,7 @@
       <c r="V498" t="s">
         <v>156</v>
       </c>
-      <c r="W498" t="s">
+      <c r="W498" s="1" t="s">
         <v>84</v>
       </c>
       <c r="X498">
@@ -35612,7 +35619,7 @@
       <c r="V499" t="s">
         <v>156</v>
       </c>
-      <c r="W499" t="s">
+      <c r="W499" s="1" t="s">
         <v>84</v>
       </c>
       <c r="X499">
@@ -35698,7 +35705,7 @@
       <c r="V500" t="s">
         <v>157</v>
       </c>
-      <c r="W500" t="s">
+      <c r="W500" s="1" t="s">
         <v>86</v>
       </c>
       <c r="X500">
@@ -35784,7 +35791,7 @@
       <c r="V501" t="s">
         <v>157</v>
       </c>
-      <c r="W501" t="s">
+      <c r="W501" s="1" t="s">
         <v>86</v>
       </c>
       <c r="X501">
@@ -45425,7 +45432,7 @@
       <c r="V649" t="s">
         <v>136</v>
       </c>
-      <c r="W649" t="s">
+      <c r="W649" s="1" t="s">
         <v>137</v>
       </c>
       <c r="X649">
@@ -45511,7 +45518,7 @@
       <c r="V650" t="s">
         <v>136</v>
       </c>
-      <c r="W650" t="s">
+      <c r="W650" s="1" t="s">
         <v>137</v>
       </c>
       <c r="X650">
@@ -45597,7 +45604,7 @@
       <c r="V651" t="s">
         <v>166</v>
       </c>
-      <c r="W651" t="s">
+      <c r="W651" s="1" t="s">
         <v>126</v>
       </c>
       <c r="X651">
@@ -45683,7 +45690,7 @@
       <c r="V652" t="s">
         <v>166</v>
       </c>
-      <c r="W652" t="s">
+      <c r="W652" s="1" t="s">
         <v>126</v>
       </c>
       <c r="X652">
@@ -45769,7 +45776,7 @@
       <c r="V653" t="s">
         <v>127</v>
       </c>
-      <c r="W653" t="s">
+      <c r="W653" s="1" t="s">
         <v>128</v>
       </c>
       <c r="X653">
@@ -45855,7 +45862,7 @@
       <c r="V654" t="s">
         <v>127</v>
       </c>
-      <c r="W654" t="s">
+      <c r="W654" s="1" t="s">
         <v>128</v>
       </c>
       <c r="X654">
@@ -45941,7 +45948,7 @@
       <c r="V655" t="s">
         <v>168</v>
       </c>
-      <c r="W655" t="s">
+      <c r="W655" s="1" t="s">
         <v>134</v>
       </c>
       <c r="X655">
@@ -46027,7 +46034,7 @@
       <c r="V656" t="s">
         <v>168</v>
       </c>
-      <c r="W656" t="s">
+      <c r="W656" s="1" t="s">
         <v>134</v>
       </c>
       <c r="X656">
@@ -46113,7 +46120,7 @@
       <c r="V657" t="s">
         <v>169</v>
       </c>
-      <c r="W657" t="s">
+      <c r="W657" s="1" t="s">
         <v>170</v>
       </c>
       <c r="X657">
@@ -46199,7 +46206,7 @@
       <c r="V658" t="s">
         <v>169</v>
       </c>
-      <c r="W658" t="s">
+      <c r="W658" s="1" t="s">
         <v>170</v>
       </c>
       <c r="X658">
@@ -46285,7 +46292,7 @@
       <c r="V659" t="s">
         <v>172</v>
       </c>
-      <c r="W659" t="s">
+      <c r="W659" s="1" t="s">
         <v>173</v>
       </c>
       <c r="X659">
@@ -46371,7 +46378,7 @@
       <c r="V660" t="s">
         <v>172</v>
       </c>
-      <c r="W660" t="s">
+      <c r="W660" s="1" t="s">
         <v>173</v>
       </c>
       <c r="X660">
@@ -46457,7 +46464,7 @@
       <c r="V661" t="s">
         <v>175</v>
       </c>
-      <c r="W661" t="s">
+      <c r="W661" s="1" t="s">
         <v>176</v>
       </c>
       <c r="X661">
@@ -46543,7 +46550,7 @@
       <c r="V662" t="s">
         <v>175</v>
       </c>
-      <c r="W662" t="s">
+      <c r="W662" s="1" t="s">
         <v>176</v>
       </c>
       <c r="X662">
@@ -46629,7 +46636,7 @@
       <c r="V663" t="s">
         <v>178</v>
       </c>
-      <c r="W663" t="s">
+      <c r="W663" s="1" t="s">
         <v>179</v>
       </c>
       <c r="X663">
@@ -46715,7 +46722,7 @@
       <c r="V664" t="s">
         <v>178</v>
       </c>
-      <c r="W664" t="s">
+      <c r="W664" s="1" t="s">
         <v>179</v>
       </c>
       <c r="X664">
@@ -46801,7 +46808,7 @@
       <c r="V665" t="s">
         <v>76</v>
       </c>
-      <c r="W665">
+      <c r="W665" s="1">
         <v>22</v>
       </c>
       <c r="X665">
@@ -46887,7 +46894,7 @@
       <c r="V666" t="s">
         <v>76</v>
       </c>
-      <c r="W666">
+      <c r="W666" s="1">
         <v>22</v>
       </c>
       <c r="X666">
@@ -46973,7 +46980,7 @@
       <c r="V667" t="s">
         <v>180</v>
       </c>
-      <c r="W667" t="s">
+      <c r="W667" s="1" t="s">
         <v>131</v>
       </c>
       <c r="X667">
@@ -47059,7 +47066,7 @@
       <c r="V668" t="s">
         <v>180</v>
       </c>
-      <c r="W668" t="s">
+      <c r="W668" s="1" t="s">
         <v>131</v>
       </c>
       <c r="X668">
@@ -47145,7 +47152,7 @@
       <c r="V669" t="s">
         <v>182</v>
       </c>
-      <c r="W669">
+      <c r="W669" s="1">
         <v>16</v>
       </c>
       <c r="X669">
@@ -47231,7 +47238,7 @@
       <c r="V670" t="s">
         <v>182</v>
       </c>
-      <c r="W670">
+      <c r="W670" s="1">
         <v>16</v>
       </c>
       <c r="X670">
@@ -47317,7 +47324,7 @@
       <c r="V671" t="s">
         <v>183</v>
       </c>
-      <c r="W671">
+      <c r="W671" s="1">
         <v>12</v>
       </c>
       <c r="X671">
@@ -47403,7 +47410,7 @@
       <c r="V672" t="s">
         <v>183</v>
       </c>
-      <c r="W672">
+      <c r="W672" s="1">
         <v>12</v>
       </c>
       <c r="X672">
@@ -47489,7 +47496,7 @@
       <c r="V673" t="s">
         <v>114</v>
       </c>
-      <c r="W673" t="s">
+      <c r="W673" s="1" t="s">
         <v>114</v>
       </c>
       <c r="X673" t="s">
@@ -47575,7 +47582,7 @@
       <c r="V674" t="s">
         <v>114</v>
       </c>
-      <c r="W674" t="s">
+      <c r="W674" s="1" t="s">
         <v>114</v>
       </c>
       <c r="X674" t="s">
@@ -47661,7 +47668,7 @@
       <c r="V675" t="s">
         <v>184</v>
       </c>
-      <c r="W675" t="s">
+      <c r="W675" s="1" t="s">
         <v>80</v>
       </c>
       <c r="X675">
@@ -47747,7 +47754,7 @@
       <c r="V676" t="s">
         <v>184</v>
       </c>
-      <c r="W676" t="s">
+      <c r="W676" s="1" t="s">
         <v>80</v>
       </c>
       <c r="X676">
@@ -56413,7 +56420,7 @@
       <c r="V809" t="s">
         <v>187</v>
       </c>
-      <c r="W809" t="s">
+      <c r="W809" s="1" t="s">
         <v>188</v>
       </c>
       <c r="X809">
@@ -56499,7 +56506,7 @@
       <c r="V810" t="s">
         <v>187</v>
       </c>
-      <c r="W810" t="s">
+      <c r="W810" s="1" t="s">
         <v>188</v>
       </c>
       <c r="X810">
@@ -56585,7 +56592,7 @@
       <c r="V811" t="s">
         <v>193</v>
       </c>
-      <c r="W811" t="s">
+      <c r="W811" s="1" t="s">
         <v>194</v>
       </c>
       <c r="X811">
@@ -56671,7 +56678,7 @@
       <c r="V812" t="s">
         <v>193</v>
       </c>
-      <c r="W812" t="s">
+      <c r="W812" s="1" t="s">
         <v>194</v>
       </c>
       <c r="X812">
@@ -56757,7 +56764,7 @@
       <c r="V813" t="s">
         <v>196</v>
       </c>
-      <c r="W813" t="s">
+      <c r="W813" s="1" t="s">
         <v>197</v>
       </c>
       <c r="X813">
@@ -56843,7 +56850,7 @@
       <c r="V814" t="s">
         <v>196</v>
       </c>
-      <c r="W814" t="s">
+      <c r="W814" s="1" t="s">
         <v>197</v>
       </c>
       <c r="X814">
@@ -56929,7 +56936,7 @@
       <c r="V815" t="s">
         <v>51</v>
       </c>
-      <c r="W815" t="s">
+      <c r="W815" s="1" t="s">
         <v>199</v>
       </c>
       <c r="X815">
@@ -57015,7 +57022,7 @@
       <c r="V816" t="s">
         <v>51</v>
       </c>
-      <c r="W816" t="s">
+      <c r="W816" s="1" t="s">
         <v>199</v>
       </c>
       <c r="X816">
@@ -57101,7 +57108,7 @@
       <c r="V817" t="s">
         <v>201</v>
       </c>
-      <c r="W817" t="s">
+      <c r="W817" s="1" t="s">
         <v>140</v>
       </c>
       <c r="X817">
@@ -57187,7 +57194,7 @@
       <c r="V818" t="s">
         <v>201</v>
       </c>
-      <c r="W818" t="s">
+      <c r="W818" s="1" t="s">
         <v>140</v>
       </c>
       <c r="X818">
@@ -57273,7 +57280,7 @@
       <c r="V819" t="s">
         <v>202</v>
       </c>
-      <c r="W819" t="s">
+      <c r="W819" s="1" t="s">
         <v>203</v>
       </c>
       <c r="X819">
@@ -57359,7 +57366,7 @@
       <c r="V820" t="s">
         <v>202</v>
       </c>
-      <c r="W820" t="s">
+      <c r="W820" s="1" t="s">
         <v>203</v>
       </c>
       <c r="X820">
@@ -57445,7 +57452,7 @@
       <c r="V821" t="s">
         <v>204</v>
       </c>
-      <c r="W821" t="s">
+      <c r="W821" s="1" t="s">
         <v>82</v>
       </c>
       <c r="X821">
@@ -57531,7 +57538,7 @@
       <c r="V822" t="s">
         <v>204</v>
       </c>
-      <c r="W822" t="s">
+      <c r="W822" s="1" t="s">
         <v>82</v>
       </c>
       <c r="X822">
@@ -57617,7 +57624,7 @@
       <c r="V823" t="s">
         <v>205</v>
       </c>
-      <c r="W823" t="s">
+      <c r="W823" s="1" t="s">
         <v>206</v>
       </c>
       <c r="X823">
@@ -57703,7 +57710,7 @@
       <c r="V824" t="s">
         <v>205</v>
       </c>
-      <c r="W824" t="s">
+      <c r="W824" s="1" t="s">
         <v>206</v>
       </c>
       <c r="X824">
@@ -57789,7 +57796,7 @@
       <c r="V825" t="s">
         <v>208</v>
       </c>
-      <c r="W825" t="s">
+      <c r="W825" s="1" t="s">
         <v>74</v>
       </c>
       <c r="X825">
@@ -57875,7 +57882,7 @@
       <c r="V826" t="s">
         <v>208</v>
       </c>
-      <c r="W826" t="s">
+      <c r="W826" s="1" t="s">
         <v>74</v>
       </c>
       <c r="X826">
@@ -57961,7 +57968,7 @@
       <c r="V827" t="s">
         <v>209</v>
       </c>
-      <c r="W827" t="s">
+      <c r="W827" s="1" t="s">
         <v>84</v>
       </c>
       <c r="X827">
@@ -58047,7 +58054,7 @@
       <c r="V828" t="s">
         <v>209</v>
       </c>
-      <c r="W828" t="s">
+      <c r="W828" s="1" t="s">
         <v>84</v>
       </c>
       <c r="X828">
@@ -58133,7 +58140,7 @@
       <c r="V829" t="s">
         <v>114</v>
       </c>
-      <c r="W829" t="s">
+      <c r="W829" s="1" t="s">
         <v>114</v>
       </c>
       <c r="X829">
@@ -58219,7 +58226,7 @@
       <c r="V830" t="s">
         <v>114</v>
       </c>
-      <c r="W830" t="s">
+      <c r="W830" s="1" t="s">
         <v>114</v>
       </c>
       <c r="X830">
@@ -58305,7 +58312,7 @@
       <c r="V831" t="s">
         <v>101</v>
       </c>
-      <c r="W831" t="s">
+      <c r="W831" s="1" t="s">
         <v>55</v>
       </c>
       <c r="X831">
@@ -58391,7 +58398,7 @@
       <c r="V832" t="s">
         <v>101</v>
       </c>
-      <c r="W832" t="s">
+      <c r="W832" s="1" t="s">
         <v>55</v>
       </c>
       <c r="X832">
@@ -67317,7 +67324,7 @@
       <c r="V969" t="s">
         <v>212</v>
       </c>
-      <c r="W969" t="s">
+      <c r="W969" s="1" t="s">
         <v>213</v>
       </c>
       <c r="X969">
@@ -67403,7 +67410,7 @@
       <c r="V970" t="s">
         <v>212</v>
       </c>
-      <c r="W970" t="s">
+      <c r="W970" s="1" t="s">
         <v>213</v>
       </c>
       <c r="X970">
@@ -67489,7 +67496,7 @@
       <c r="V971" t="s">
         <v>218</v>
       </c>
-      <c r="W971" t="s">
+      <c r="W971" s="1" t="s">
         <v>219</v>
       </c>
       <c r="X971">
@@ -67575,7 +67582,7 @@
       <c r="V972" t="s">
         <v>218</v>
       </c>
-      <c r="W972" t="s">
+      <c r="W972" s="1" t="s">
         <v>219</v>
       </c>
       <c r="X972">
@@ -67661,7 +67668,7 @@
       <c r="V973" t="s">
         <v>221</v>
       </c>
-      <c r="W973" t="s">
+      <c r="W973" s="1" t="s">
         <v>77</v>
       </c>
       <c r="X973">
@@ -67747,7 +67754,7 @@
       <c r="V974" t="s">
         <v>221</v>
       </c>
-      <c r="W974" t="s">
+      <c r="W974" s="1" t="s">
         <v>77</v>
       </c>
       <c r="X974">
@@ -67833,7 +67840,7 @@
       <c r="V975" t="s">
         <v>222</v>
       </c>
-      <c r="W975" t="s">
+      <c r="W975" s="1" t="s">
         <v>223</v>
       </c>
       <c r="X975">
@@ -67919,7 +67926,7 @@
       <c r="V976" t="s">
         <v>222</v>
       </c>
-      <c r="W976" t="s">
+      <c r="W976" s="1" t="s">
         <v>223</v>
       </c>
       <c r="X976">
@@ -68005,7 +68012,7 @@
       <c r="V977" t="s">
         <v>225</v>
       </c>
-      <c r="W977" t="s">
+      <c r="W977" s="1" t="s">
         <v>226</v>
       </c>
       <c r="X977">
@@ -68091,7 +68098,7 @@
       <c r="V978" t="s">
         <v>225</v>
       </c>
-      <c r="W978" t="s">
+      <c r="W978" s="1" t="s">
         <v>226</v>
       </c>
       <c r="X978">
@@ -68177,7 +68184,7 @@
       <c r="V979" t="s">
         <v>154</v>
       </c>
-      <c r="W979" t="s">
+      <c r="W979" s="1" t="s">
         <v>100</v>
       </c>
       <c r="X979">
@@ -68263,7 +68270,7 @@
       <c r="V980" t="s">
         <v>154</v>
       </c>
-      <c r="W980" t="s">
+      <c r="W980" s="1" t="s">
         <v>100</v>
       </c>
       <c r="X980">
@@ -68349,7 +68356,7 @@
       <c r="V981" t="s">
         <v>228</v>
       </c>
-      <c r="W981" t="s">
+      <c r="W981" s="1" t="s">
         <v>69</v>
       </c>
       <c r="X981">
@@ -68435,7 +68442,7 @@
       <c r="V982" t="s">
         <v>228</v>
       </c>
-      <c r="W982" t="s">
+      <c r="W982" s="1" t="s">
         <v>69</v>
       </c>
       <c r="X982">
@@ -68521,7 +68528,7 @@
       <c r="V983" t="s">
         <v>88</v>
       </c>
-      <c r="W983" t="s">
+      <c r="W983" s="1" t="s">
         <v>55</v>
       </c>
       <c r="X983">
@@ -68607,7 +68614,7 @@
       <c r="V984" t="s">
         <v>88</v>
       </c>
-      <c r="W984" t="s">
+      <c r="W984" s="1" t="s">
         <v>55</v>
       </c>
       <c r="X984">
@@ -68693,7 +68700,7 @@
       <c r="V985" t="s">
         <v>229</v>
       </c>
-      <c r="W985" t="s">
+      <c r="W985" s="1" t="s">
         <v>82</v>
       </c>
       <c r="X985">
@@ -68779,7 +68786,7 @@
       <c r="V986" t="s">
         <v>229</v>
       </c>
-      <c r="W986" t="s">
+      <c r="W986" s="1" t="s">
         <v>82</v>
       </c>
       <c r="X986">
@@ -68865,7 +68872,7 @@
       <c r="V987" t="s">
         <v>230</v>
       </c>
-      <c r="W987" t="s">
+      <c r="W987" s="1" t="s">
         <v>84</v>
       </c>
       <c r="X987">
@@ -68951,7 +68958,7 @@
       <c r="V988" t="s">
         <v>230</v>
       </c>
-      <c r="W988" t="s">
+      <c r="W988" s="1" t="s">
         <v>84</v>
       </c>
       <c r="X988">
@@ -72937,7 +72944,7 @@
       <c r="V1049" t="s">
         <v>233</v>
       </c>
-      <c r="W1049" t="s">
+      <c r="W1049" s="1" t="s">
         <v>234</v>
       </c>
       <c r="X1049">
@@ -73023,7 +73030,7 @@
       <c r="V1050" t="s">
         <v>233</v>
       </c>
-      <c r="W1050" t="s">
+      <c r="W1050" s="1" t="s">
         <v>234</v>
       </c>
       <c r="X1050">
@@ -73109,7 +73116,7 @@
       <c r="V1051" t="s">
         <v>239</v>
       </c>
-      <c r="W1051" t="s">
+      <c r="W1051" s="1" t="s">
         <v>240</v>
       </c>
       <c r="X1051">
@@ -73195,7 +73202,7 @@
       <c r="V1052" t="s">
         <v>239</v>
       </c>
-      <c r="W1052" t="s">
+      <c r="W1052" s="1" t="s">
         <v>240</v>
       </c>
       <c r="X1052">
@@ -73281,7 +73288,7 @@
       <c r="V1053" t="s">
         <v>242</v>
       </c>
-      <c r="W1053" t="s">
+      <c r="W1053" s="1" t="s">
         <v>243</v>
       </c>
       <c r="X1053">
@@ -73367,7 +73374,7 @@
       <c r="V1054" t="s">
         <v>242</v>
       </c>
-      <c r="W1054" t="s">
+      <c r="W1054" s="1" t="s">
         <v>243</v>
       </c>
       <c r="X1054">
@@ -73453,7 +73460,7 @@
       <c r="V1055" t="s">
         <v>245</v>
       </c>
-      <c r="W1055" t="s">
+      <c r="W1055" s="1" t="s">
         <v>246</v>
       </c>
       <c r="X1055">
@@ -73539,7 +73546,7 @@
       <c r="V1056" t="s">
         <v>245</v>
       </c>
-      <c r="W1056" t="s">
+      <c r="W1056" s="1" t="s">
         <v>246</v>
       </c>
       <c r="X1056">
@@ -73625,7 +73632,7 @@
       <c r="V1057" t="s">
         <v>248</v>
       </c>
-      <c r="W1057" t="s">
+      <c r="W1057" s="1" t="s">
         <v>249</v>
       </c>
       <c r="X1057">
@@ -73711,7 +73718,7 @@
       <c r="V1058" t="s">
         <v>248</v>
       </c>
-      <c r="W1058" t="s">
+      <c r="W1058" s="1" t="s">
         <v>249</v>
       </c>
       <c r="X1058">
@@ -73797,7 +73804,7 @@
       <c r="V1059" t="s">
         <v>202</v>
       </c>
-      <c r="W1059" t="s">
+      <c r="W1059" s="1" t="s">
         <v>203</v>
       </c>
       <c r="X1059">
@@ -73883,7 +73890,7 @@
       <c r="V1060" t="s">
         <v>202</v>
       </c>
-      <c r="W1060" t="s">
+      <c r="W1060" s="1" t="s">
         <v>203</v>
       </c>
       <c r="X1060">
@@ -73969,7 +73976,7 @@
       <c r="V1061" t="s">
         <v>73</v>
       </c>
-      <c r="W1061" t="s">
+      <c r="W1061" s="1" t="s">
         <v>74</v>
       </c>
       <c r="X1061">
@@ -74055,7 +74062,7 @@
       <c r="V1062" t="s">
         <v>73</v>
       </c>
-      <c r="W1062" t="s">
+      <c r="W1062" s="1" t="s">
         <v>74</v>
       </c>
       <c r="X1062">
@@ -74141,7 +74148,7 @@
       <c r="V1063" t="s">
         <v>251</v>
       </c>
-      <c r="W1063" t="s">
+      <c r="W1063" s="1" t="s">
         <v>252</v>
       </c>
       <c r="X1063">
@@ -74227,7 +74234,7 @@
       <c r="V1064" t="s">
         <v>251</v>
       </c>
-      <c r="W1064" t="s">
+      <c r="W1064" s="1" t="s">
         <v>252</v>
       </c>
       <c r="X1064">
@@ -74313,7 +74320,7 @@
       <c r="V1065" t="s">
         <v>253</v>
       </c>
-      <c r="W1065" t="s">
+      <c r="W1065" s="1" t="s">
         <v>254</v>
       </c>
       <c r="X1065">
@@ -74399,7 +74406,7 @@
       <c r="V1066" t="s">
         <v>253</v>
       </c>
-      <c r="W1066" t="s">
+      <c r="W1066" s="1" t="s">
         <v>254</v>
       </c>
       <c r="X1066">
@@ -74485,7 +74492,7 @@
       <c r="V1067" t="s">
         <v>256</v>
       </c>
-      <c r="W1067" t="s">
+      <c r="W1067" s="1" t="s">
         <v>49</v>
       </c>
       <c r="X1067">
@@ -74571,7 +74578,7 @@
       <c r="V1068" t="s">
         <v>256</v>
       </c>
-      <c r="W1068" t="s">
+      <c r="W1068" s="1" t="s">
         <v>49</v>
       </c>
       <c r="X1068">
@@ -74657,7 +74664,7 @@
       <c r="V1069" t="s">
         <v>257</v>
       </c>
-      <c r="W1069" t="s">
+      <c r="W1069" s="1" t="s">
         <v>77</v>
       </c>
       <c r="X1069">
@@ -74743,7 +74750,7 @@
       <c r="V1070" t="s">
         <v>257</v>
       </c>
-      <c r="W1070" t="s">
+      <c r="W1070" s="1" t="s">
         <v>77</v>
       </c>
       <c r="X1070">
@@ -74829,7 +74836,7 @@
       <c r="V1071" t="s">
         <v>258</v>
       </c>
-      <c r="W1071" t="s">
+      <c r="W1071" s="1" t="s">
         <v>55</v>
       </c>
       <c r="X1071">
@@ -74915,7 +74922,7 @@
       <c r="V1072" t="s">
         <v>258</v>
       </c>
-      <c r="W1072" t="s">
+      <c r="W1072" s="1" t="s">
         <v>55</v>
       </c>
       <c r="X1072">
@@ -78641,7 +78648,7 @@
       <c r="V1129" t="s">
         <v>139</v>
       </c>
-      <c r="W1129" t="s">
+      <c r="W1129" s="1" t="s">
         <v>262</v>
       </c>
       <c r="X1129">
@@ -78727,7 +78734,7 @@
       <c r="V1130" t="s">
         <v>139</v>
       </c>
-      <c r="W1130" t="s">
+      <c r="W1130" s="1" t="s">
         <v>262</v>
       </c>
       <c r="X1130">
@@ -78813,7 +78820,7 @@
       <c r="V1131" t="s">
         <v>267</v>
       </c>
-      <c r="W1131" t="s">
+      <c r="W1131" s="1" t="s">
         <v>268</v>
       </c>
       <c r="X1131">
@@ -78899,7 +78906,7 @@
       <c r="V1132" t="s">
         <v>267</v>
       </c>
-      <c r="W1132" t="s">
+      <c r="W1132" s="1" t="s">
         <v>268</v>
       </c>
       <c r="X1132">
@@ -78985,7 +78992,7 @@
       <c r="V1133" t="s">
         <v>270</v>
       </c>
-      <c r="W1133" t="s">
+      <c r="W1133" s="1" t="s">
         <v>271</v>
       </c>
       <c r="X1133">
@@ -79071,7 +79078,7 @@
       <c r="V1134" t="s">
         <v>270</v>
       </c>
-      <c r="W1134" t="s">
+      <c r="W1134" s="1" t="s">
         <v>271</v>
       </c>
       <c r="X1134">
@@ -79157,7 +79164,7 @@
       <c r="V1135" t="s">
         <v>272</v>
       </c>
-      <c r="W1135" t="s">
+      <c r="W1135" s="1" t="s">
         <v>223</v>
       </c>
       <c r="X1135">
@@ -79243,7 +79250,7 @@
       <c r="V1136" t="s">
         <v>272</v>
       </c>
-      <c r="W1136" t="s">
+      <c r="W1136" s="1" t="s">
         <v>223</v>
       </c>
       <c r="X1136">
@@ -79329,7 +79336,7 @@
       <c r="V1137" t="s">
         <v>274</v>
       </c>
-      <c r="W1137" t="s">
+      <c r="W1137" s="1" t="s">
         <v>275</v>
       </c>
       <c r="X1137">
@@ -79415,7 +79422,7 @@
       <c r="V1138" t="s">
         <v>274</v>
       </c>
-      <c r="W1138" t="s">
+      <c r="W1138" s="1" t="s">
         <v>275</v>
       </c>
       <c r="X1138">
@@ -79501,7 +79508,7 @@
       <c r="V1139" t="s">
         <v>277</v>
       </c>
-      <c r="W1139" t="s">
+      <c r="W1139" s="1" t="s">
         <v>100</v>
       </c>
       <c r="X1139">
@@ -79587,7 +79594,7 @@
       <c r="V1140" t="s">
         <v>277</v>
       </c>
-      <c r="W1140" t="s">
+      <c r="W1140" s="1" t="s">
         <v>100</v>
       </c>
       <c r="X1140">
@@ -79673,7 +79680,7 @@
       <c r="V1141" t="s">
         <v>127</v>
       </c>
-      <c r="W1141" t="s">
+      <c r="W1141" s="1" t="s">
         <v>128</v>
       </c>
       <c r="X1141">
@@ -79759,7 +79766,7 @@
       <c r="V1142" t="s">
         <v>127</v>
       </c>
-      <c r="W1142" t="s">
+      <c r="W1142" s="1" t="s">
         <v>128</v>
       </c>
       <c r="X1142">
@@ -79845,7 +79852,7 @@
       <c r="V1143" t="s">
         <v>256</v>
       </c>
-      <c r="W1143" t="s">
+      <c r="W1143" s="1" t="s">
         <v>49</v>
       </c>
       <c r="X1143">
@@ -79931,7 +79938,7 @@
       <c r="V1144" t="s">
         <v>256</v>
       </c>
-      <c r="W1144" t="s">
+      <c r="W1144" s="1" t="s">
         <v>49</v>
       </c>
       <c r="X1144">
@@ -80017,7 +80024,7 @@
       <c r="V1145" t="s">
         <v>281</v>
       </c>
-      <c r="W1145" t="s">
+      <c r="W1145" s="1" t="s">
         <v>282</v>
       </c>
       <c r="X1145">
@@ -80103,7 +80110,7 @@
       <c r="V1146" t="s">
         <v>281</v>
       </c>
-      <c r="W1146" t="s">
+      <c r="W1146" s="1" t="s">
         <v>282</v>
       </c>
       <c r="X1146">
@@ -80189,7 +80196,7 @@
       <c r="V1147" t="s">
         <v>284</v>
       </c>
-      <c r="W1147" t="s">
+      <c r="W1147" s="1" t="s">
         <v>100</v>
       </c>
       <c r="X1147">
@@ -80275,7 +80282,7 @@
       <c r="V1148" t="s">
         <v>284</v>
       </c>
-      <c r="W1148" t="s">
+      <c r="W1148" s="1" t="s">
         <v>100</v>
       </c>
       <c r="X1148">
@@ -80361,7 +80368,7 @@
       <c r="V1149" t="s">
         <v>114</v>
       </c>
-      <c r="W1149" t="s">
+      <c r="W1149" s="1" t="s">
         <v>114</v>
       </c>
       <c r="X1149" t="s">
@@ -80447,7 +80454,7 @@
       <c r="V1150" t="s">
         <v>114</v>
       </c>
-      <c r="W1150" t="s">
+      <c r="W1150" s="1" t="s">
         <v>114</v>
       </c>
       <c r="X1150" t="s">
@@ -80533,7 +80540,7 @@
       <c r="V1151" t="s">
         <v>285</v>
       </c>
-      <c r="W1151" t="s">
+      <c r="W1151" s="1" t="s">
         <v>286</v>
       </c>
       <c r="X1151">
@@ -80619,7 +80626,7 @@
       <c r="V1152" t="s">
         <v>285</v>
       </c>
-      <c r="W1152" t="s">
+      <c r="W1152" s="1" t="s">
         <v>286</v>
       </c>
       <c r="X1152">
@@ -80705,7 +80712,7 @@
       <c r="V1153" t="s">
         <v>114</v>
       </c>
-      <c r="W1153" t="s">
+      <c r="W1153" s="1" t="s">
         <v>114</v>
       </c>
       <c r="X1153" t="s">
@@ -80791,7 +80798,7 @@
       <c r="V1154" t="s">
         <v>114</v>
       </c>
-      <c r="W1154" t="s">
+      <c r="W1154" s="1" t="s">
         <v>114</v>
       </c>
       <c r="X1154" t="s">
@@ -80877,7 +80884,7 @@
       <c r="V1155" t="s">
         <v>288</v>
       </c>
-      <c r="W1155" t="s">
+      <c r="W1155" s="1" t="s">
         <v>55</v>
       </c>
       <c r="X1155">
@@ -80963,7 +80970,7 @@
       <c r="V1156" t="s">
         <v>288</v>
       </c>
-      <c r="W1156" t="s">
+      <c r="W1156" s="1" t="s">
         <v>55</v>
       </c>
       <c r="X1156">
